--- a/products analysis/lockmassProd2000_neg100_300_noblanks2.xlsx
+++ b/products analysis/lockmassProd2000_neg100_300_noblanks2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8662409A-A0D1-4731-B760-D65651939574}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D9B66441-6E58-4603-B775-FD95DBBA1B99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
   <si>
     <t>mz</t>
   </si>
@@ -186,6 +186,87 @@
   <si>
     <t>mass error</t>
   </si>
+  <si>
+    <t>House Dust mz</t>
+  </si>
+  <si>
+    <t>C5H7O4</t>
+  </si>
+  <si>
+    <t>C6H9O4</t>
+  </si>
+  <si>
+    <t>C8H7O3</t>
+  </si>
+  <si>
+    <t>C8H11O4</t>
+  </si>
+  <si>
+    <t>C9H15O3</t>
+  </si>
+  <si>
+    <t>C8H13O4</t>
+  </si>
+  <si>
+    <t>C9H11O4</t>
+  </si>
+  <si>
+    <t>C9H13O4</t>
+  </si>
+  <si>
+    <t>C9H15O4</t>
+  </si>
+  <si>
+    <t>C10H13O4</t>
+  </si>
+  <si>
+    <t>C10H15O4</t>
+  </si>
+  <si>
+    <t>C11H15O4</t>
+  </si>
+  <si>
+    <t>From House Dust List:</t>
+  </si>
+  <si>
+    <t>C12H13O4</t>
+  </si>
+  <si>
+    <t>C16H31O2</t>
+  </si>
+  <si>
+    <t>C18H35O2</t>
+  </si>
+  <si>
+    <t>C7H5O3</t>
+  </si>
+  <si>
+    <t>C8H5O4</t>
+  </si>
+  <si>
+    <t>C14H21O4</t>
+  </si>
+  <si>
+    <t>C14H21O5</t>
+  </si>
+  <si>
+    <t>Final List:</t>
+  </si>
+  <si>
+    <t>m/z</t>
+  </si>
+  <si>
+    <t>LOBF</t>
+  </si>
+  <si>
+    <t>LOBF+1ppm</t>
+  </si>
+  <si>
+    <t>LOBF-1ppm</t>
+  </si>
+  <si>
+    <t>y = -0.0003456698x2 + 0.2037737937x - 30.9994545499</t>
+  </si>
 </sst>
 </file>
 
@@ -334,7 +415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -693,15 +774,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -829,16 +912,48 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.3714962854219494"/>
-                  <c:y val="9.1072035876613194E-2"/>
+                  <c:x val="-0.47991330190672143"/>
+                  <c:y val="0.12342722875935901"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.9814</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -868,10 +983,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Curve creation'!$M$2:$M$35</c:f>
+              <c:f>'Curve creation'!$AC$2:$AC$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>102.01966900000001</c:v>
                 </c:pt>
@@ -888,101 +1003,158 @@
                   <c:v>129.05572000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>131.03498500000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>131.07137</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>137.02441999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>138.01966899999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>143.03498500000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>143.07137</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>145.050635</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>145.08702</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>148.06153399999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
+                  <c:v>151.04007000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>155.07137</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>157.08702</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>157.12340499999999</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
+                  <c:v>165.01933500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>167.07137</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>169.08702</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
+                  <c:v>171.06628499999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>171.10267000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>171.13905500000001</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="24">
                   <c:v>173.04554999999999</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="25">
+                  <c:v>173.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>175.06120000000001</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
+                  <c:v>183.06628499999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>185.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>187.06120000000001</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
+                  <c:v>187.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>194.067014</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
+                  <c:v>197.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>199.06120000000001</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="34">
+                  <c:v>199.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>201.07685000000001</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="36">
                   <c:v>201.113235</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="37">
+                  <c:v>211.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>213.07685000000001</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="39">
                   <c:v>215.0925</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="40">
                   <c:v>215.128885</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="41">
+                  <c:v>221.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>225.07685000000001</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="43">
                   <c:v>227.128885</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="44">
                   <c:v>239.0925</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="45">
                   <c:v>239.128885</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="46">
                   <c:v>241.10814999999999</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="47">
+                  <c:v>253.14453499999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>255.232955</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>259.08232999999996</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="50">
                   <c:v>265.14790699999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>269.13944999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>283.26425499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Curve creation'!$N$2:$N$35</c:f>
+              <c:f>'Curve creation'!$AD$2:$AD$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>-15.379387282696282</c:v>
                 </c:pt>
@@ -999,91 +1171,148 @@
                   <c:v>-10.228140217427651</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>-9.8065413598953111</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>-9.6893776269006064</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>-8.9035224523434628</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-9.1943417135663079</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>-8.9838160922361876</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>-8.8766886065689548</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>-8.5142681382147192</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>-8.408746695530315</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>-7.6589777869484852</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
+                  <c:v>-7.7462887828500859</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>-6.9000486679041533</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>-7.1298061417551946</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>-7.6691311520316807</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
+                  <c:v>-6.8779819043931614</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>-7.0029951870382803</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>-6.6238082614858378</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
+                  <c:v>-6.3425706590233286</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.2535552485942727</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>-6.7488978480764743</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="24">
                   <c:v>-6.0677665504384475</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="25">
+                  <c:v>-6.5575878846339055</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>-6.2835168501535144</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
+                  <c:v>-4.8343145215542176</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.5921178909312426</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>-4.8112596305458064</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
+                  <c:v>-5.2646323575701119</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>-4.7097133158061082</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
+                  <c:v>-4.2368165302591319</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>-4.0188645503320446</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="34">
+                  <c:v>-4.4450564280370592</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>-4.2272394858682452</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="36">
                   <c:v>-4.1518898544644962</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="37">
+                  <c:v>-3.7186593110839481</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>-3.0505425624950195</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="39">
                   <c:v>-3.2544137986904045</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="40">
                   <c:v>-3.1841377321518936</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="41">
+                  <c:v>-3.3245592862218083</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>-2.4436098159541828</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="43">
                   <c:v>-2.5756301317683392</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="44">
                   <c:v>-2.5094890052657286</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="45">
                   <c:v>-2.446379491130676</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="46">
                   <c:v>-1.8663823682473097</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="47">
+                  <c:v>-1.7183859014841285</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.99908728482921105</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>-0.50177100057730173</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="50">
                   <c:v>-0.78069633787064374</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.92888649336708129</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.6062739719422199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,7 +1358,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1173,10 +1402,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Curve creation'!$M$2:$M$20</c:f>
+              <c:f>'Curve creation'!$AC$2:$AC$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>102.01966900000001</c:v>
                 </c:pt>
@@ -1193,45 +1422,69 @@
                   <c:v>129.05572000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>131.03498500000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>131.07137</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>137.02441999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>138.01966899999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>143.03498500000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>143.07137</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>145.050635</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>145.08702</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>148.06153399999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
+                  <c:v>151.04007000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>155.07137</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>157.08702</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>157.12340499999999</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
+                  <c:v>165.01933500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>167.07137</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>169.08702</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
+                  <c:v>171.06628499999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>171.10267000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>171.13905500000001</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="24">
                   <c:v>173.04554999999999</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="25">
+                  <c:v>173.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>175.06120000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1239,10 +1492,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Curve creation'!$N$2:$N$20</c:f>
+              <c:f>'Curve creation'!$AD$2:$AD$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>-15.379387282696282</c:v>
                 </c:pt>
@@ -1259,45 +1512,69 @@
                   <c:v>-10.228140217427651</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>-9.8065413598953111</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>-9.6893776269006064</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>-8.9035224523434628</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-9.1943417135663079</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>-8.9838160922361876</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>-8.8766886065689548</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>-8.5142681382147192</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>-8.408746695530315</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>-7.6589777869484852</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
+                  <c:v>-7.7462887828500859</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>-6.9000486679041533</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>-7.1298061417551946</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>-7.6691311520316807</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
+                  <c:v>-6.8779819043931614</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>-7.0029951870382803</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>-6.6238082614858378</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
+                  <c:v>-6.3425706590233286</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.2535552485942727</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>-6.7488978480764743</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="24">
                   <c:v>-6.0677665504384475</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="25">
+                  <c:v>-6.5575878846339055</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>-6.2835168501535144</c:v>
                 </c:pt>
               </c:numCache>
@@ -1342,11 +1619,12 @@
                 <a:solidFill>
                   <a:srgbClr val="00B050"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
@@ -1385,108 +1663,174 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Curve creation'!$M$21:$M$35</c:f>
+              <c:f>'Curve creation'!$AC$29:$AC$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>183.06628499999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>187.06120000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>187.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>194.067014</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>197.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>199.06120000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>199.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>201.07685000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>201.113235</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>211.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>213.07685000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>215.0925</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>215.128885</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
+                  <c:v>221.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>225.07685000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>227.128885</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>239.0925</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>239.128885</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>241.10814999999999</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
+                  <c:v>253.14453499999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>255.232955</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>259.08232999999996</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>265.14790699999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>269.13944999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>283.26425499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Curve creation'!$N$21:$N$35</c:f>
+              <c:f>'Curve creation'!$AD$29:$AD$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>-4.8343145215542176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.5921178909312426</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-4.8112596305458064</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>-5.2646323575701119</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>-4.7097133158061082</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>-4.2368165302591319</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>-4.0188645503320446</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>-4.4450564280370592</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-4.2272394858682452</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>-4.1518898544644962</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>-3.7186593110839481</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>-3.0505425624950195</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>-3.2544137986904045</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>-3.1841377321518936</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
+                  <c:v>-3.3245592862218083</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>-2.4436098159541828</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>-2.5756301317683392</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>-2.5094890052657286</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>-2.446379491130676</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>-1.8663823682473097</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
+                  <c:v>-1.7183859014841285</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.99908728482921105</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>-0.50177100057730173</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>-0.78069633787064374</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.92888649336708129</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.6062739719422199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,6 +1839,1119 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F714-4AED-85C9-D2238B4BB0ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LOBF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Curve creation'!$AJ$2:$AJ$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>102.01966900000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.05572000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.029505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.01933500000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129.05572000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131.03498500000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.07137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.02441999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138.01966899999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>143.03498500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>143.07137</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>145.050635</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145.08702</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.06153399999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>151.04007000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>155.07137</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>157.08702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>157.12340499999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>165.01933500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>167.07137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>169.08702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>171.06628499999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>171.10267000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>171.13905500000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>173.04554999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>173.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>175.06120000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>183.06628499999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>185.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>187.06120000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>187.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>194.067014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>197.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>199.06120000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>199.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>201.07685000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>201.113235</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>211.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>213.07685000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>215.0925</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>215.128885</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>221.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>225.07685000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>227.128885</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>239.0925</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>239.128885</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>241.10814999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>253.14453499999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>255.232955</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>259.08232999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>265.14790699999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>269.13944999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>283.26425499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Curve creation'!$AK$2:$AK$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>-13.808255290457261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.882948385396325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11.400233164100662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.462710816925192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.458542367906471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.23316684349372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.229049096923919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.5676582435787161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.4594753157665892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.9247338596845935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.9209179658109399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.714720675813588</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.710955484388851</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.4062427255941259</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.1072471487391375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.7123397370979632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.5190992396527534</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.5156368161667046</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.7859046207671661</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.6033144107849893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.4267958973166586</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.2561969730154274</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.2530861894319116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.2499763210909229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.0883063646424702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-6.0852453682653476</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.9201128630270503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.2798666643600569</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.1256370435868526</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.9769246696292946</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.9742162283972391</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.4723009300484193</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.2655816213083639</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.133289378631531</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.1308827900956331</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4.0013486505534601</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.9989927644664753</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.3871022541940192</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.273988245932582</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.1615783074149775</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.1595749764730527</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.844129483951388</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.6461807437117031</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.5487913109252069</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.0389601733269735</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.0375605477773604</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.9628030083467145</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.5664982084750427</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.5079325453204824</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.4078852412141174</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.2710262169814648</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.1948404745102117</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.0136966942290755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F714-4AED-85C9-D2238B4BB0ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>LOBF+</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Curve creation'!$AJ$2:$AJ$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>102.01966900000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.05572000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.029505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.01933500000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129.05572000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131.03498500000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.07137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.02441999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138.01966899999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>143.03498500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>143.07137</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>145.050635</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145.08702</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.06153399999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>151.04007000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>155.07137</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>157.08702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>157.12340499999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>165.01933500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>167.07137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>169.08702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>171.06628499999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>171.10267000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>171.13905500000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>173.04554999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>173.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>175.06120000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>183.06628499999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>185.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>187.06120000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>187.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>194.067014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>197.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>199.06120000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>199.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>201.07685000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>201.113235</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>211.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>213.07685000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>215.0925</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>215.128885</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>221.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>225.07685000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>227.128885</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>239.0925</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>239.128885</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>241.10814999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>253.14453499999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>255.232955</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>259.08232999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>265.14790699999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>269.13944999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>283.26425499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Curve creation'!$AL$2:$AL$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>-12.808255290457261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.882948385396325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.400233164100662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.4627108169251919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.4585423679064711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.23316684349372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.2290490969239194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.5676582435787161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.4594753157665892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.9247338596845935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.9209179658109399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.714720675813588</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.710955484388851</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.4062427255941259</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.1072471487391375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.7123397370979632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.5190992396527534</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.5156368161667046</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.7859046207671661</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.6033144107849893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.4267958973166586</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.2561969730154274</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.2530861894319116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.2499763210909229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.0883063646424702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.0852453682653476</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.9201128630270503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.2798666643600569</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.1256370435868526</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.9769246696292946</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.9742162283972391</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.4723009300484193</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.2655816213083639</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.133289378631531</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.1308827900956331</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.0013486505534601</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.9989927644664753</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.3871022541940192</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.273988245932582</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.1615783074149775</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.1595749764730527</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.844129483951388</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.6461807437117031</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.5487913109252069</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.0389601733269735</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.0375605477773604</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.96280300834671451</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.56649820847504273</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.50793254532048238</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.4078852412141174</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.27102621698146478</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.19484047451021169</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.369669422907549E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F714-4AED-85C9-D2238B4BB0ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>LOBF-</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Curve creation'!$AJ$2:$AJ$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>102.01966900000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.05572000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.029505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.01933500000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129.05572000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131.03498500000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.07137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.02441999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138.01966899999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>143.03498500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>143.07137</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>145.050635</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145.08702</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.06153399999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>151.04007000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>155.07137</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>157.08702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>157.12340499999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>165.01933500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>167.07137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>169.08702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>171.06628499999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>171.10267000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>171.13905500000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>173.04554999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>173.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>175.06120000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>183.06628499999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>185.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>187.06120000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>187.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>194.067014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>197.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>199.06120000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>199.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>201.07685000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>201.113235</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>211.09758500000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>213.07685000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>215.0925</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>215.128885</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>221.08193500000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>225.07685000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>227.128885</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>239.0925</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>239.128885</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>241.10814999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>253.14453499999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>255.232955</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>259.08232999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>265.14790699999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>269.13944999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>283.26425499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Curve creation'!$AM$2:$AM$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>-14.808255290457261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.882948385396325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.400233164100662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.462710816925192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11.458542367906471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-11.23316684349372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-11.229049096923919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10.567658243578716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.459475315766589</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.9247338596845935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.9209179658109399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.714720675813588</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.710955484388851</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.4062427255941259</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.1072471487391375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.7123397370979632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.5190992396527534</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.5156368161667046</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.7859046207671661</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.6033144107849893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.4267958973166586</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.2561969730154274</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.2530861894319116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.2499763210909229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.0883063646424702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.0852453682653476</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.9201128630270503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.2798666643600569</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.1256370435868526</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.9769246696292946</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.9742162283972391</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5.4723009300484193</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5.2655816213083639</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5.133289378631531</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.1308827900956331</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-5.0013486505534601</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.9989927644664753</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4.3871022541940192</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.273988245932582</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.1615783074149775</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.1595749764730527</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.844129483951388</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.6461807437117031</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.5487913109252069</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3.0389601733269735</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-3.0375605477773604</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.9628030083467145</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.5664982084750427</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.5079325453204824</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.4078852412141174</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.2710262169814648</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.1948404745102117</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.0136966942290755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F714-4AED-85C9-D2238B4BB0ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1518,20 +2975,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1636,20 +3079,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2358,16 +3787,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2694,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1636"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView topLeftCell="A698" workbookViewId="0">
+      <selection activeCell="A698" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48484,10 +49913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2:AM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48502,10 +49931,23 @@
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -48539,15 +49981,69 @@
       <c r="N1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100.932</v>
       </c>
       <c r="B2">
         <v>100.93219999999999</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G2">
@@ -48567,15 +50063,66 @@
       <c r="N2">
         <v>-15.379387282696282</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q2" s="4">
+        <v>131.034435</v>
+      </c>
+      <c r="R2" s="4">
+        <v>131.03370000000001</v>
+      </c>
+      <c r="S2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2">
+        <v>-9.7840000000000007</v>
+      </c>
+      <c r="V2">
+        <v>131.034435</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2:W20" si="0">V2+0.00055</f>
+        <v>131.03498500000001</v>
+      </c>
+      <c r="X2">
+        <f>((R2-W2)/W2)</f>
+        <v>-9.8065413598953111E-6</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:Y20" si="1">X2*10^6</f>
+        <v>-9.8065413598953111</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2">
+        <v>102.01966900000001</v>
+      </c>
+      <c r="AD2">
+        <v>-15.379387282696282</v>
+      </c>
+      <c r="AJ2">
+        <v>102.01966900000001</v>
+      </c>
+      <c r="AK2">
+        <f>(-0.0003456698*(AJ2^2))+(0.2037737937*AJ2)-30.9994545499</f>
+        <v>-13.808255290457261</v>
+      </c>
+      <c r="AL2">
+        <f>AK2+1</f>
+        <v>-12.808255290457261</v>
+      </c>
+      <c r="AM2">
+        <f>AK2-1</f>
+        <v>-14.808255290457261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102.018</v>
       </c>
       <c r="B3" s="5">
         <v>102.0181</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D3">
@@ -48585,7 +50132,7 @@
         <v>102.019119</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G42" si="0">F3+0.00055</f>
+        <f t="shared" ref="G3:G42" si="2">F3+0.00055</f>
         <v>102.01966900000001</v>
       </c>
       <c r="H3">
@@ -48593,7 +50140,7 @@
         <v>-1.5379387282696282E-5</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I42" si="1">H3*10^6</f>
+        <f t="shared" ref="I3:I42" si="3">H3*10^6</f>
         <v>-15.379387282696282</v>
       </c>
       <c r="L3" t="s">
@@ -48605,15 +50152,66 @@
       <c r="N3">
         <v>-12.130974889652473</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6">
+        <v>137.02386999999999</v>
+      </c>
+      <c r="R3">
+        <v>137.0232</v>
+      </c>
+      <c r="S3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3">
+        <v>-8.8840000000000003</v>
+      </c>
+      <c r="V3">
+        <v>137.02386999999999</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>137.02441999999999</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X20" si="4">((R3-W3)/W3)</f>
+        <v>-8.9035224523434635E-6</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="1"/>
+        <v>-8.9035224523434628</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3">
+        <v>117.05572000000001</v>
+      </c>
+      <c r="AD3">
+        <v>-12.130974889652473</v>
+      </c>
+      <c r="AJ3">
+        <v>117.05572000000001</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK54" si="5">(-0.0003456698*(AJ3^2))+(0.2037737937*AJ3)-30.9994545499</f>
+        <v>-11.882948385396325</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" ref="AL3:AL54" si="6">AK3+1</f>
+        <v>-10.882948385396325</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM54" si="7">AK3-1</f>
+        <v>-12.882948385396325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>112.98399999999999</v>
       </c>
       <c r="B4">
         <v>112.9842</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D4">
@@ -48623,15 +50221,15 @@
         <v>112.985039</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>112.985589</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H42" si="2">((B4-G4)/G4)</f>
+        <f t="shared" ref="H4:H42" si="8">((B4-G4)/G4)</f>
         <v>-1.2293603213443382E-5</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-12.293603213443381</v>
       </c>
       <c r="L4" t="s">
@@ -48643,8 +50241,59 @@
       <c r="N4">
         <v>-10.782494731364141</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q4" s="4">
+        <v>145.050085</v>
+      </c>
+      <c r="R4" s="4">
+        <v>145.04939999999999</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4">
+        <v>-8.4939999999999998</v>
+      </c>
+      <c r="V4">
+        <v>145.050085</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>145.050635</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="4"/>
+        <v>-8.5142681382147197E-6</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>-8.5142681382147192</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC4">
+        <v>121.029505</v>
+      </c>
+      <c r="AD4">
+        <v>-10.782494731364141</v>
+      </c>
+      <c r="AJ4">
+        <v>121.029505</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="5"/>
+        <v>-11.400233164100662</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="6"/>
+        <v>-10.400233164100662</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="7"/>
+        <v>-12.400233164100662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>117.054</v>
       </c>
@@ -48661,15 +50310,15 @@
         <v>117.05517</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>117.05572000000001</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-1.2130974889652472E-5</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-12.130974889652473</v>
       </c>
       <c r="L5" t="s">
@@ -48681,27 +50330,78 @@
       <c r="N5">
         <v>-11.122363946573993</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q5" s="7">
+        <v>151.03952000000001</v>
+      </c>
+      <c r="R5">
+        <v>151.03890000000001</v>
+      </c>
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5">
+        <v>-7.7290000000000001</v>
+      </c>
+      <c r="V5">
+        <v>151.03952000000001</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>151.04007000000001</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="4"/>
+        <v>-7.7462887828500857E-6</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>-7.7462887828500859</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC5">
+        <v>129.01933500000001</v>
+      </c>
+      <c r="AD5">
+        <v>-11.122363946573993</v>
+      </c>
+      <c r="AJ5">
+        <v>129.01933500000001</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="5"/>
+        <v>-10.462710816925192</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="6"/>
+        <v>-9.4627108169251919</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="7"/>
+        <v>-11.462710816925192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>117.91800000000001</v>
       </c>
       <c r="B6">
         <v>117.9177</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>214394.81818181815</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>214394818181.81815</v>
       </c>
       <c r="L6" t="s">
@@ -48713,8 +50413,59 @@
       <c r="N6">
         <v>-10.228140217427651</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q6" s="6">
+        <v>165.01878500000001</v>
+      </c>
+      <c r="R6" s="4">
+        <v>165.01820000000001</v>
+      </c>
+      <c r="S6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6">
+        <v>-6.86</v>
+      </c>
+      <c r="V6">
+        <v>165.01878500000001</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>165.01933500000001</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="4"/>
+        <v>-6.877981904393161E-6</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>-6.8779819043931614</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6">
+        <v>129.05572000000001</v>
+      </c>
+      <c r="AD6">
+        <v>-10.228140217427651</v>
+      </c>
+      <c r="AJ6">
+        <v>129.05572000000001</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="5"/>
+        <v>-10.458542367906471</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="6"/>
+        <v>-9.4585423679064711</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="7"/>
+        <v>-11.458542367906471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>121.02800000000001</v>
       </c>
@@ -48731,15 +50482,15 @@
         <v>121.028955</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>121.029505</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-1.0782494731364141E-5</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-10.782494731364141</v>
       </c>
       <c r="L7" t="s">
@@ -48751,8 +50502,59 @@
       <c r="N7">
         <v>-9.6893776269006064</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q7" s="4">
+        <v>171.06573499999999</v>
+      </c>
+      <c r="R7" s="4">
+        <v>171.0652</v>
+      </c>
+      <c r="S7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <v>-6.3259999999999996</v>
+      </c>
+      <c r="V7">
+        <v>171.06573499999999</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>171.06628499999999</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="4"/>
+        <v>-6.3425706590233286E-6</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>-6.3425706590233286</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC7">
+        <v>131.03498500000001</v>
+      </c>
+      <c r="AD7">
+        <v>-9.8065413598953111</v>
+      </c>
+      <c r="AJ7">
+        <v>131.03498500000001</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="5"/>
+        <v>-10.23316684349372</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="6"/>
+        <v>-9.23316684349372</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="7"/>
+        <v>-11.23316684349372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>129.018</v>
       </c>
@@ -48769,15 +50571,15 @@
         <v>129.01878500000001</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>129.01933500000001</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-1.1122363946573992E-5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-11.122363946573993</v>
       </c>
       <c r="L8" t="s">
@@ -48789,8 +50591,59 @@
       <c r="N8">
         <v>-9.1943417135663079</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q8" s="4">
+        <v>171.10212000000001</v>
+      </c>
+      <c r="R8" s="4">
+        <v>171.10159999999999</v>
+      </c>
+      <c r="S8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8">
+        <v>-6.24</v>
+      </c>
+      <c r="V8">
+        <v>171.10212000000001</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>171.10267000000002</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="4"/>
+        <v>-6.2535552485942724E-6</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>-6.2535552485942727</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC8">
+        <v>131.07137</v>
+      </c>
+      <c r="AD8">
+        <v>-9.6893776269006064</v>
+      </c>
+      <c r="AJ8">
+        <v>131.07137</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="5"/>
+        <v>-10.229049096923919</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="6"/>
+        <v>-9.2290490969239194</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="7"/>
+        <v>-11.229049096923919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>129.054</v>
       </c>
@@ -48807,15 +50660,15 @@
         <v>129.05517</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>129.05572000000001</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-1.0228140217427651E-5</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-10.228140217427651</v>
       </c>
       <c r="L9" t="s">
@@ -48827,8 +50680,59 @@
       <c r="N9">
         <v>-8.9838160922361876</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q9" s="4">
+        <v>173.08138500000001</v>
+      </c>
+      <c r="R9" s="4">
+        <v>173.08080000000001</v>
+      </c>
+      <c r="S9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9">
+        <v>-6.5410000000000004</v>
+      </c>
+      <c r="V9">
+        <v>173.08138500000001</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>173.08193500000002</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="4"/>
+        <v>-6.5575878846339053E-6</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>-6.5575878846339055</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC9">
+        <v>137.02441999999999</v>
+      </c>
+      <c r="AD9">
+        <v>-8.9035224523434628</v>
+      </c>
+      <c r="AJ9">
+        <v>137.02441999999999</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="5"/>
+        <v>-9.5676582435787161</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="6"/>
+        <v>-8.5676582435787161</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="7"/>
+        <v>-10.567658243578716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>131.07</v>
       </c>
@@ -48845,15 +50749,15 @@
         <v>131.07082</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>131.07137</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-9.6893776269006068E-6</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-9.6893776269006064</v>
       </c>
       <c r="L10" t="s">
@@ -48865,27 +50769,78 @@
       <c r="N10">
         <v>-8.8766886065689548</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q10" s="4">
+        <v>183.06573499999999</v>
+      </c>
+      <c r="R10" s="4">
+        <v>183.06540000000001</v>
+      </c>
+      <c r="S10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10">
+        <v>-4.819</v>
+      </c>
+      <c r="V10">
+        <v>183.06573499999999</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>183.06628499999999</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="4"/>
+        <v>-4.834314521554218E-6</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>-4.8343145215542176</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC10">
+        <v>138.01966899999999</v>
+      </c>
+      <c r="AD10">
+        <v>-9.1943417135663079</v>
+      </c>
+      <c r="AJ10">
+        <v>138.01966899999999</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="5"/>
+        <v>-9.4594753157665892</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="6"/>
+        <v>-8.4594753157665892</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="7"/>
+        <v>-10.459475315766589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>132.922</v>
       </c>
       <c r="B11">
         <v>132.9221</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>241675.54545454544</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>241675545454.54544</v>
       </c>
       <c r="L11" t="s">
@@ -48897,15 +50852,66 @@
       <c r="N11">
         <v>-8.408746695530315</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q11" s="4">
+        <v>185.08138500000001</v>
+      </c>
+      <c r="R11" s="4">
+        <v>185.08090000000001</v>
+      </c>
+      <c r="S11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11">
+        <v>-5.577</v>
+      </c>
+      <c r="V11">
+        <v>185.08138500000001</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>185.08193500000002</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="4"/>
+        <v>-5.5921178909312429E-6</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>-5.5921178909312426</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC11">
+        <v>143.03498500000001</v>
+      </c>
+      <c r="AD11">
+        <v>-8.9838160922361876</v>
+      </c>
+      <c r="AJ11">
+        <v>143.03498500000001</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="5"/>
+        <v>-8.9247338596845935</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="6"/>
+        <v>-7.9247338596845935</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="7"/>
+        <v>-9.9247338596845935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>138.018</v>
       </c>
       <c r="B12">
         <v>138.01840000000001</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D12">
@@ -48915,15 +50921,15 @@
         <v>138.01911899999999</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>138.01966899999999</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-9.1943417135663078E-6</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-9.1943417135663079</v>
       </c>
       <c r="L12" t="s">
@@ -48935,8 +50941,59 @@
       <c r="N12">
         <v>-7.6589777869484852</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q12" s="4">
+        <v>187.09703500000001</v>
+      </c>
+      <c r="R12" s="4">
+        <v>187.0966</v>
+      </c>
+      <c r="S12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12">
+        <v>-5.25</v>
+      </c>
+      <c r="V12">
+        <v>187.09703500000001</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>187.09758500000001</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="4"/>
+        <v>-5.2646323575701124E-6</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>-5.2646323575701119</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC12">
+        <v>143.07137</v>
+      </c>
+      <c r="AD12">
+        <v>-8.8766886065689548</v>
+      </c>
+      <c r="AJ12">
+        <v>143.07137</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="5"/>
+        <v>-8.9209179658109399</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="6"/>
+        <v>-7.9209179658109399</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="7"/>
+        <v>-9.9209179658109399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>143.03399999999999</v>
       </c>
@@ -48953,15 +51010,15 @@
         <v>143.034435</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>143.03498500000001</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-8.9838160922361881E-6</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-8.9838160922361876</v>
       </c>
       <c r="L13" t="s">
@@ -48973,8 +51030,59 @@
       <c r="N13">
         <v>-6.9000486679041533</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q13" s="4">
+        <v>197.08138500000001</v>
+      </c>
+      <c r="R13" s="4">
+        <v>197.08109999999999</v>
+      </c>
+      <c r="S13" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13">
+        <v>-4.2229999999999999</v>
+      </c>
+      <c r="V13">
+        <v>197.08138500000001</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>197.08193500000002</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="4"/>
+        <v>-4.2368165302591322E-6</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>-4.2368165302591319</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC13">
+        <v>145.050635</v>
+      </c>
+      <c r="AD13">
+        <v>-8.5142681382147192</v>
+      </c>
+      <c r="AJ13">
+        <v>145.050635</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="5"/>
+        <v>-8.714720675813588</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="6"/>
+        <v>-7.714720675813588</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="7"/>
+        <v>-9.714720675813588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>143.07</v>
       </c>
@@ -48991,15 +51099,15 @@
         <v>143.07082</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>143.07137</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-8.876688606568955E-6</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-8.8766886065689548</v>
       </c>
       <c r="L14" t="s">
@@ -49011,8 +51119,59 @@
       <c r="N14">
         <v>-7.1298061417551946</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q14" s="4">
+        <v>199.09703500000001</v>
+      </c>
+      <c r="R14" s="4">
+        <v>199.0967</v>
+      </c>
+      <c r="S14" t="s">
+        <v>64</v>
+      </c>
+      <c r="T14">
+        <v>-4.431</v>
+      </c>
+      <c r="V14">
+        <v>199.09703500000001</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>199.09758500000001</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="4"/>
+        <v>-4.4450564280370593E-6</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>-4.4450564280370592</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC14">
+        <v>145.08702</v>
+      </c>
+      <c r="AD14">
+        <v>-8.408746695530315</v>
+      </c>
+      <c r="AJ14">
+        <v>145.08702</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="5"/>
+        <v>-8.710955484388851</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="6"/>
+        <v>-7.710955484388851</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="7"/>
+        <v>-9.710955484388851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>145.08600000000001</v>
       </c>
@@ -49029,15 +51188,15 @@
         <v>145.08646999999999</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>145.08702</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-8.4087466955303156E-6</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-8.408746695530315</v>
       </c>
       <c r="L15" t="s">
@@ -49049,15 +51208,66 @@
       <c r="N15">
         <v>-7.6691311520316807</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q15" s="4">
+        <v>211.09703500000001</v>
+      </c>
+      <c r="R15" s="4">
+        <v>211.0968</v>
+      </c>
+      <c r="S15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T15">
+        <v>-3.706</v>
+      </c>
+      <c r="V15">
+        <v>211.09703500000001</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>211.09758500000001</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="4"/>
+        <v>-3.7186593110839481E-6</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>-3.7186593110839481</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15">
+        <v>148.06153399999999</v>
+      </c>
+      <c r="AD15">
+        <v>-7.6589777869484852</v>
+      </c>
+      <c r="AJ15">
+        <v>148.06153399999999</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="5"/>
+        <v>-8.4062427255941259</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="6"/>
+        <v>-7.4062427255941259</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="7"/>
+        <v>-9.4062427255941259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>148.06</v>
       </c>
       <c r="B16">
         <v>148.06039999999999</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D16">
@@ -49067,15 +51277,15 @@
         <v>148.06098399999999</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>148.06153399999999</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-7.658977786948485E-6</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.6589777869484852</v>
       </c>
       <c r="L16" t="s">
@@ -49087,8 +51297,59 @@
       <c r="N16">
         <v>-7.0029951870382803</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q16" s="4">
+        <v>221.08138500000001</v>
+      </c>
+      <c r="R16" s="4">
+        <v>221.0812</v>
+      </c>
+      <c r="S16" t="s">
+        <v>67</v>
+      </c>
+      <c r="T16">
+        <v>-3.3119999999999998</v>
+      </c>
+      <c r="V16">
+        <v>221.08138500000001</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>221.08193500000002</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="4"/>
+        <v>-3.3245592862218081E-6</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>-3.3245592862218083</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC16">
+        <v>151.04007000000001</v>
+      </c>
+      <c r="AD16">
+        <v>-7.7462887828500859</v>
+      </c>
+      <c r="AJ16">
+        <v>151.04007000000001</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="5"/>
+        <v>-8.1072471487391375</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="6"/>
+        <v>-7.1072471487391375</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="7"/>
+        <v>-9.1072471487391375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>155.07</v>
       </c>
@@ -49105,15 +51366,15 @@
         <v>155.07082</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>155.07137</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-6.9000486679041531E-6</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.9000486679041533</v>
       </c>
       <c r="L17" t="s">
@@ -49125,8 +51386,59 @@
       <c r="N17">
         <v>-6.6238082614858378</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q17" s="6">
+        <v>253.14398499999999</v>
+      </c>
+      <c r="R17">
+        <v>253.14410000000001</v>
+      </c>
+      <c r="S17" t="s">
+        <v>72</v>
+      </c>
+      <c r="T17">
+        <v>-1.708</v>
+      </c>
+      <c r="V17">
+        <v>253.14398499999999</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>253.14453499999999</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="4"/>
+        <v>-1.7183859014841286E-6</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>-1.7183859014841285</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC17">
+        <v>155.07137</v>
+      </c>
+      <c r="AD17">
+        <v>-6.9000486679041533</v>
+      </c>
+      <c r="AJ17">
+        <v>155.07137</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="5"/>
+        <v>-7.7123397370979632</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="6"/>
+        <v>-6.7123397370979632</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="7"/>
+        <v>-8.7123397370979632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>157.08600000000001</v>
       </c>
@@ -49143,15 +51455,15 @@
         <v>157.08646999999999</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>157.08702</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-7.1298061417551943E-6</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.1298061417551946</v>
       </c>
       <c r="L18" t="s">
@@ -49163,8 +51475,59 @@
       <c r="N18">
         <v>-6.7488978480764743</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q18" s="4">
+        <v>255.232405</v>
+      </c>
+      <c r="R18" s="4">
+        <v>255.23269999999999</v>
+      </c>
+      <c r="S18" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18">
+        <v>-0.99299999999999999</v>
+      </c>
+      <c r="V18">
+        <v>255.232405</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>255.232955</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="4"/>
+        <v>-9.9908728482921109E-7</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>-0.99908728482921105</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC18">
+        <v>157.08702</v>
+      </c>
+      <c r="AD18">
+        <v>-7.1298061417551946</v>
+      </c>
+      <c r="AJ18">
+        <v>157.08702</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="5"/>
+        <v>-7.5190992396527534</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="6"/>
+        <v>-6.5190992396527534</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="7"/>
+        <v>-8.5190992396527534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>157.12200000000001</v>
       </c>
@@ -49181,15 +51544,15 @@
         <v>157.12285499999999</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>157.12340499999999</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-7.6691311520316811E-6</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.6691311520316807</v>
       </c>
       <c r="L19" t="s">
@@ -49201,8 +51564,59 @@
       <c r="N19">
         <v>-6.0677665504384475</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q19" s="6">
+        <v>269.13889999999998</v>
+      </c>
+      <c r="R19" s="4">
+        <v>269.13920000000002</v>
+      </c>
+      <c r="S19" t="s">
+        <v>73</v>
+      </c>
+      <c r="T19">
+        <v>-0.91800000000000004</v>
+      </c>
+      <c r="V19">
+        <v>269.13889999999998</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="0"/>
+        <v>269.13944999999995</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="4"/>
+        <v>-9.2888649336708125E-7</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>-0.92888649336708129</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC19">
+        <v>157.12340499999999</v>
+      </c>
+      <c r="AD19">
+        <v>-7.6691311520316807</v>
+      </c>
+      <c r="AJ19">
+        <v>157.12340499999999</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="5"/>
+        <v>-7.5156368161667046</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="6"/>
+        <v>-6.5156368161667046</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="7"/>
+        <v>-8.5156368161667046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>165.04</v>
       </c>
@@ -49220,15 +51634,15 @@
         <v>165.03991500000001</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>165.04046500000001</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-4.6352268820936539E-6</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.6352268820936535</v>
       </c>
       <c r="L20" t="s">
@@ -49240,8 +51654,59 @@
       <c r="N20">
         <v>-6.2835168501535144</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q20" s="4">
+        <v>283.26370500000002</v>
+      </c>
+      <c r="R20" s="4">
+        <v>283.2638</v>
+      </c>
+      <c r="S20" t="s">
+        <v>69</v>
+      </c>
+      <c r="T20">
+        <v>-1.6020000000000001</v>
+      </c>
+      <c r="V20">
+        <v>283.26370500000002</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="0"/>
+        <v>283.26425499999999</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="4"/>
+        <v>-1.6062739719422199E-6</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>-1.6062739719422199</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC20">
+        <v>165.01933500000001</v>
+      </c>
+      <c r="AD20">
+        <v>-6.8779819043931614</v>
+      </c>
+      <c r="AJ20">
+        <v>165.01933500000001</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="5"/>
+        <v>-6.7859046207671661</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="6"/>
+        <v>-5.7859046207671661</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="7"/>
+        <v>-7.7859046207671661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>167.07</v>
       </c>
@@ -49258,15 +51723,15 @@
         <v>167.07082</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>167.07137</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-7.0029951870382801E-6</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.0029951870382803</v>
       </c>
       <c r="L21" t="s">
@@ -49278,8 +51743,32 @@
       <c r="N21">
         <v>-4.8112596305458064</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC21">
+        <v>167.07137</v>
+      </c>
+      <c r="AD21">
+        <v>-7.0029951870382803</v>
+      </c>
+      <c r="AJ21">
+        <v>167.07137</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="5"/>
+        <v>-6.6033144107849893</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="6"/>
+        <v>-5.6033144107849893</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="7"/>
+        <v>-7.6033144107849893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>169.08600000000001</v>
       </c>
@@ -49296,15 +51785,15 @@
         <v>169.08646999999999</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>169.08702</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-6.623808261485838E-6</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.6238082614858378</v>
       </c>
       <c r="L22" t="s">
@@ -49316,8 +51805,32 @@
       <c r="N22">
         <v>-4.7097133158061082</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC22">
+        <v>169.08702</v>
+      </c>
+      <c r="AD22">
+        <v>-6.6238082614858378</v>
+      </c>
+      <c r="AJ22">
+        <v>169.08702</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="5"/>
+        <v>-6.4267958973166586</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="6"/>
+        <v>-5.4267958973166586</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="7"/>
+        <v>-7.4267958973166586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>171.13800000000001</v>
       </c>
@@ -49334,15 +51847,15 @@
         <v>171.13850500000001</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>171.13905500000001</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-6.7488978480764741E-6</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.7488978480764743</v>
       </c>
       <c r="L23" t="s">
@@ -49354,8 +51867,32 @@
       <c r="N23">
         <v>-4.0188645503320446</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC23">
+        <v>171.06628499999999</v>
+      </c>
+      <c r="AD23">
+        <v>-6.3425706590233286</v>
+      </c>
+      <c r="AJ23">
+        <v>171.06628499999999</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="5"/>
+        <v>-6.2561969730154274</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="6"/>
+        <v>-5.2561969730154274</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="7"/>
+        <v>-7.2561969730154274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>173.04400000000001</v>
       </c>
@@ -49372,15 +51909,15 @@
         <v>173.04499999999999</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>173.04554999999999</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-6.0677665504384477E-6</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.0677665504384475</v>
       </c>
       <c r="L24" t="s">
@@ -49392,33 +51929,57 @@
       <c r="N24">
         <v>-4.2272394858682452</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC24">
+        <v>171.10267000000002</v>
+      </c>
+      <c r="AD24">
+        <v>-6.2535552485942727</v>
+      </c>
+      <c r="AJ24">
+        <v>171.10267000000002</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="5"/>
+        <v>-6.2530861894319116</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="6"/>
+        <v>-5.2530861894319116</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="7"/>
+        <v>-7.2530861894319116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>174.048</v>
       </c>
       <c r="B25">
         <v>174.0479</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="8">
         <v>-4.26</v>
       </c>
       <c r="F25">
         <v>174.04809299999999</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>174.048643</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-4.2689215336194157E-6</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.268921533619416</v>
       </c>
       <c r="L25" t="s">
@@ -49430,8 +51991,32 @@
       <c r="N25">
         <v>-4.1518898544644962</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC25">
+        <v>171.13905500000001</v>
+      </c>
+      <c r="AD25">
+        <v>-6.7488978480764743</v>
+      </c>
+      <c r="AJ25">
+        <v>171.13905500000001</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="5"/>
+        <v>-6.2499763210909229</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="6"/>
+        <v>-5.2499763210909229</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="7"/>
+        <v>-7.2499763210909229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>175.06</v>
       </c>
@@ -49448,15 +52033,15 @@
         <v>175.06065000000001</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>175.06120000000001</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-6.2835168501535145E-6</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.2835168501535144</v>
       </c>
       <c r="L26" t="s">
@@ -49468,27 +52053,51 @@
       <c r="N26">
         <v>-3.0505425624950195</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC26">
+        <v>173.04554999999999</v>
+      </c>
+      <c r="AD26">
+        <v>-6.0677665504384475</v>
+      </c>
+      <c r="AJ26">
+        <v>173.04554999999999</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="5"/>
+        <v>-6.0883063646424702</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="6"/>
+        <v>-5.0883063646424702</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="7"/>
+        <v>-7.0883063646424702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>182.988</v>
       </c>
       <c r="B27">
         <v>182.98759999999999</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>332703.72727272724</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>332703727272.72723</v>
       </c>
       <c r="L27" t="s">
@@ -49500,8 +52109,32 @@
       <c r="N27">
         <v>-3.2544137986904045</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC27">
+        <v>173.08193500000002</v>
+      </c>
+      <c r="AD27">
+        <v>-6.5575878846339055</v>
+      </c>
+      <c r="AJ27">
+        <v>173.08193500000002</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="5"/>
+        <v>-6.0852453682653476</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="6"/>
+        <v>-5.0852453682653476</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="7"/>
+        <v>-7.0852453682653476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>187.06</v>
       </c>
@@ -49518,15 +52151,15 @@
         <v>187.06065000000001</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>187.06120000000001</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-4.8112596305458063E-6</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.8112596305458064</v>
       </c>
       <c r="L28" t="s">
@@ -49538,15 +52171,39 @@
       <c r="N28">
         <v>-3.1841377321518936</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC28">
+        <v>175.06120000000001</v>
+      </c>
+      <c r="AD28">
+        <v>-6.2835168501535144</v>
+      </c>
+      <c r="AJ28">
+        <v>175.06120000000001</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="5"/>
+        <v>-5.9201128630270503</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="6"/>
+        <v>-4.9201128630270503</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="7"/>
+        <v>-6.9201128630270503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>194.066</v>
       </c>
       <c r="B29">
         <v>194.06610000000001</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D29">
@@ -49556,15 +52213,15 @@
         <v>194.066464</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>194.067014</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-4.7097133158061078E-6</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.7097133158061082</v>
       </c>
       <c r="L29" t="s">
@@ -49576,8 +52233,32 @@
       <c r="N29">
         <v>-2.4436098159541828</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC29">
+        <v>183.06628499999999</v>
+      </c>
+      <c r="AD29">
+        <v>-4.8343145215542176</v>
+      </c>
+      <c r="AJ29">
+        <v>183.06628499999999</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="5"/>
+        <v>-5.2798666643600569</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="6"/>
+        <v>-4.2798666643600569</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="7"/>
+        <v>-6.2798666643600569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>199.06</v>
       </c>
@@ -49594,15 +52275,15 @@
         <v>199.06065000000001</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>199.06120000000001</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-4.0188645503320447E-6</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.0188645503320446</v>
       </c>
       <c r="L30" t="s">
@@ -49614,8 +52295,32 @@
       <c r="N30">
         <v>-2.5756301317683392</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB30" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC30">
+        <v>185.08193500000002</v>
+      </c>
+      <c r="AD30">
+        <v>-5.5921178909312426</v>
+      </c>
+      <c r="AJ30">
+        <v>185.08193500000002</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="5"/>
+        <v>-5.1256370435868526</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="6"/>
+        <v>-4.1256370435868526</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="7"/>
+        <v>-6.1256370435868526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>201.07599999999999</v>
       </c>
@@ -49632,15 +52337,15 @@
         <v>201.0763</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>201.07685000000001</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-4.2272394858682451E-6</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.2272394858682452</v>
       </c>
       <c r="L31" t="s">
@@ -49652,8 +52357,32 @@
       <c r="N31">
         <v>-2.5094890052657286</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC31">
+        <v>187.06120000000001</v>
+      </c>
+      <c r="AD31">
+        <v>-4.8112596305458064</v>
+      </c>
+      <c r="AJ31">
+        <v>187.06120000000001</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="5"/>
+        <v>-4.9769246696292946</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="6"/>
+        <v>-3.9769246696292946</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" si="7"/>
+        <v>-5.9769246696292946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201.11199999999999</v>
       </c>
@@ -49670,15 +52399,15 @@
         <v>201.112685</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>201.113235</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-4.1518898544644966E-6</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.1518898544644962</v>
       </c>
       <c r="L32" t="s">
@@ -49690,8 +52419,32 @@
       <c r="N32">
         <v>-2.446379491130676</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC32">
+        <v>187.09758500000001</v>
+      </c>
+      <c r="AD32">
+        <v>-5.2646323575701119</v>
+      </c>
+      <c r="AJ32">
+        <v>187.09758500000001</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="5"/>
+        <v>-4.9742162283972391</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="6"/>
+        <v>-3.9742162283972391</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="7"/>
+        <v>-5.9742162283972391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>213.07599999999999</v>
       </c>
@@ -49708,15 +52461,15 @@
         <v>213.0763</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>213.07685000000001</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-3.0505425624950195E-6</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.0505425624950195</v>
       </c>
       <c r="L33" t="s">
@@ -49728,8 +52481,32 @@
       <c r="N33">
         <v>-1.8663823682473097</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC33">
+        <v>194.067014</v>
+      </c>
+      <c r="AD33">
+        <v>-4.7097133158061082</v>
+      </c>
+      <c r="AJ33">
+        <v>194.067014</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="5"/>
+        <v>-4.4723009300484193</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="6"/>
+        <v>-3.4723009300484193</v>
+      </c>
+      <c r="AM33">
+        <f t="shared" si="7"/>
+        <v>-5.4723009300484193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>215.09200000000001</v>
       </c>
@@ -49746,15 +52523,15 @@
         <v>215.09195</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>215.0925</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-3.2544137986904047E-6</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.2544137986904045</v>
       </c>
       <c r="L34" t="s">
@@ -49766,8 +52543,32 @@
       <c r="N34">
         <v>-0.50177100057730173</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC34">
+        <v>197.08193500000002</v>
+      </c>
+      <c r="AD34">
+        <v>-4.2368165302591319</v>
+      </c>
+      <c r="AJ34">
+        <v>197.08193500000002</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="5"/>
+        <v>-4.2655816213083639</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="6"/>
+        <v>-3.2655816213083639</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="7"/>
+        <v>-5.2655816213083639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>215.12799999999999</v>
       </c>
@@ -49784,15 +52585,15 @@
         <v>215.12833499999999</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>215.128885</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-3.1841377321518936E-6</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.1841377321518936</v>
       </c>
       <c r="L35" t="s">
@@ -49804,8 +52605,32 @@
       <c r="N35">
         <v>-0.78069633787064374</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC35">
+        <v>199.06120000000001</v>
+      </c>
+      <c r="AD35">
+        <v>-4.0188645503320446</v>
+      </c>
+      <c r="AJ35">
+        <v>199.06120000000001</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="5"/>
+        <v>-4.133289378631531</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="6"/>
+        <v>-3.133289378631531</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="7"/>
+        <v>-5.133289378631531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>225.07599999999999</v>
       </c>
@@ -49822,19 +52647,43 @@
         <v>225.0763</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>225.07685000000001</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-2.443609815954183E-6</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.4436098159541828</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC36">
+        <v>199.09758500000001</v>
+      </c>
+      <c r="AD36">
+        <v>-4.4450564280370592</v>
+      </c>
+      <c r="AJ36">
+        <v>199.09758500000001</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="5"/>
+        <v>-4.1308827900956331</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="6"/>
+        <v>-3.1308827900956331</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="7"/>
+        <v>-5.1308827900956331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>227.12799999999999</v>
       </c>
@@ -49851,19 +52700,43 @@
         <v>227.12833499999999</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>227.128885</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-2.575630131768339E-6</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.5756301317683392</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB37" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC37">
+        <v>201.07685000000001</v>
+      </c>
+      <c r="AD37">
+        <v>-4.2272394858682452</v>
+      </c>
+      <c r="AJ37">
+        <v>201.07685000000001</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="5"/>
+        <v>-4.0013486505534601</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="6"/>
+        <v>-3.0013486505534601</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="7"/>
+        <v>-5.0013486505534601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>239.09200000000001</v>
       </c>
@@ -49880,19 +52753,43 @@
         <v>239.09195</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>239.0925</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-2.5094890052657287E-6</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.5094890052657286</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC38">
+        <v>201.113235</v>
+      </c>
+      <c r="AD38">
+        <v>-4.1518898544644962</v>
+      </c>
+      <c r="AJ38">
+        <v>201.113235</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="5"/>
+        <v>-3.9989927644664753</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="6"/>
+        <v>-2.9989927644664753</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="7"/>
+        <v>-4.9989927644664753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>239.12799999999999</v>
       </c>
@@ -49909,19 +52806,43 @@
         <v>239.12833499999999</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>239.128885</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-2.4463794911306758E-6</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.446379491130676</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC39">
+        <v>211.09758500000001</v>
+      </c>
+      <c r="AD39">
+        <v>-3.7186593110839481</v>
+      </c>
+      <c r="AJ39">
+        <v>211.09758500000001</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="5"/>
+        <v>-3.3871022541940192</v>
+      </c>
+      <c r="AL39">
+        <f t="shared" si="6"/>
+        <v>-2.3871022541940192</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" si="7"/>
+        <v>-4.3871022541940192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>241.108</v>
       </c>
@@ -49938,19 +52859,43 @@
         <v>241.10759999999999</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>241.10814999999999</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-1.8663823682473097E-6</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.8663823682473097</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC40">
+        <v>213.07685000000001</v>
+      </c>
+      <c r="AD40">
+        <v>-3.0505425624950195</v>
+      </c>
+      <c r="AJ40">
+        <v>213.07685000000001</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="5"/>
+        <v>-3.273988245932582</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="6"/>
+        <v>-2.273988245932582</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="7"/>
+        <v>-4.273988245932582</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>259.08199999999999</v>
       </c>
@@ -49967,26 +52912,50 @@
         <v>259.08177999999998</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>259.08232999999996</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-5.0177100057730171E-7</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.50177100057730173</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC41">
+        <v>215.0925</v>
+      </c>
+      <c r="AD41">
+        <v>-3.2544137986904045</v>
+      </c>
+      <c r="AJ41">
+        <v>215.0925</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="5"/>
+        <v>-3.1615783074149775</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="6"/>
+        <v>-2.1615783074149775</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="7"/>
+        <v>-4.1615783074149775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>265.14800000000002</v>
       </c>
       <c r="B42">
         <v>265.14769999999999</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D42">
@@ -49996,35 +52965,368 @@
         <v>265.147357</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>265.14790699999998</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-7.8069633787064372E-7</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.78069633787064374</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC42">
+        <v>215.128885</v>
+      </c>
+      <c r="AD42">
+        <v>-3.1841377321518936</v>
+      </c>
+      <c r="AJ42">
+        <v>215.128885</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="5"/>
+        <v>-3.1595749764730527</v>
+      </c>
+      <c r="AL42">
+        <f t="shared" si="6"/>
+        <v>-2.1595749764730527</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" si="7"/>
+        <v>-4.1595749764730527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AB43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC43">
+        <v>221.08193500000002</v>
+      </c>
+      <c r="AD43">
+        <v>-3.3245592862218083</v>
+      </c>
+      <c r="AJ43">
+        <v>221.08193500000002</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="5"/>
+        <v>-2.844129483951388</v>
+      </c>
+      <c r="AL43">
+        <f t="shared" si="6"/>
+        <v>-1.844129483951388</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" si="7"/>
+        <v>-3.844129483951388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AB44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC44">
+        <v>225.07685000000001</v>
+      </c>
+      <c r="AD44">
+        <v>-2.4436098159541828</v>
+      </c>
+      <c r="AJ44">
+        <v>225.07685000000001</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="5"/>
+        <v>-2.6461807437117031</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="6"/>
+        <v>-1.6461807437117031</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="7"/>
+        <v>-3.6461807437117031</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AB45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC45">
+        <v>227.128885</v>
+      </c>
+      <c r="AD45">
+        <v>-2.5756301317683392</v>
+      </c>
+      <c r="AJ45">
+        <v>227.128885</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="5"/>
+        <v>-2.5487913109252069</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" si="6"/>
+        <v>-1.5487913109252069</v>
+      </c>
+      <c r="AM45">
+        <f t="shared" si="7"/>
+        <v>-3.5487913109252069</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AB46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC46">
+        <v>239.0925</v>
+      </c>
+      <c r="AD46">
+        <v>-2.5094890052657286</v>
+      </c>
+      <c r="AJ46">
+        <v>239.0925</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="5"/>
+        <v>-2.0389601733269735</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="6"/>
+        <v>-1.0389601733269735</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="7"/>
+        <v>-3.0389601733269735</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AB47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC47">
+        <v>239.128885</v>
+      </c>
+      <c r="AD47">
+        <v>-2.446379491130676</v>
+      </c>
+      <c r="AJ47">
+        <v>239.128885</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="5"/>
+        <v>-2.0375605477773604</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="6"/>
+        <v>-1.0375605477773604</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="7"/>
+        <v>-3.0375605477773604</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="AB48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC48">
+        <v>241.10814999999999</v>
+      </c>
+      <c r="AD48">
+        <v>-1.8663823682473097</v>
+      </c>
+      <c r="AJ48">
+        <v>241.10814999999999</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" si="5"/>
+        <v>-1.9628030083467145</v>
+      </c>
+      <c r="AL48">
+        <f t="shared" si="6"/>
+        <v>-0.96280300834671451</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" si="7"/>
+        <v>-2.9628030083467145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="3"/>
+      <c r="AB49" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC49">
+        <v>253.14453499999999</v>
+      </c>
+      <c r="AD49">
+        <v>-1.7183859014841285</v>
+      </c>
+      <c r="AJ49">
+        <v>253.14453499999999</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" si="5"/>
+        <v>-1.5664982084750427</v>
+      </c>
+      <c r="AL49">
+        <f t="shared" si="6"/>
+        <v>-0.56649820847504273</v>
+      </c>
+      <c r="AM49">
+        <f t="shared" si="7"/>
+        <v>-2.5664982084750427</v>
+      </c>
+    </row>
+    <row r="50" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AB50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC50">
+        <v>255.232955</v>
+      </c>
+      <c r="AD50">
+        <v>-0.99908728482921105</v>
+      </c>
+      <c r="AJ50">
+        <v>255.232955</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" si="5"/>
+        <v>-1.5079325453204824</v>
+      </c>
+      <c r="AL50">
+        <f t="shared" si="6"/>
+        <v>-0.50793254532048238</v>
+      </c>
+      <c r="AM50">
+        <f t="shared" si="7"/>
+        <v>-2.5079325453204824</v>
+      </c>
+    </row>
+    <row r="51" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AB51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC51">
+        <v>259.08232999999996</v>
+      </c>
+      <c r="AD51">
+        <v>-0.50177100057730173</v>
+      </c>
+      <c r="AJ51">
+        <v>259.08232999999996</v>
+      </c>
+      <c r="AK51">
+        <f t="shared" si="5"/>
+        <v>-1.4078852412141174</v>
+      </c>
+      <c r="AL51">
+        <f t="shared" si="6"/>
+        <v>-0.4078852412141174</v>
+      </c>
+      <c r="AM51">
+        <f t="shared" si="7"/>
+        <v>-2.4078852412141174</v>
+      </c>
+    </row>
+    <row r="52" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AB52" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC52">
+        <v>265.14790699999998</v>
+      </c>
+      <c r="AD52">
+        <v>-0.78069633787064374</v>
+      </c>
+      <c r="AJ52">
+        <v>265.14790699999998</v>
+      </c>
+      <c r="AK52">
+        <f t="shared" si="5"/>
+        <v>-1.2710262169814648</v>
+      </c>
+      <c r="AL52">
+        <f t="shared" si="6"/>
+        <v>-0.27102621698146478</v>
+      </c>
+      <c r="AM52">
+        <f t="shared" si="7"/>
+        <v>-2.2710262169814648</v>
+      </c>
+    </row>
+    <row r="53" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AB53" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC53">
+        <v>269.13944999999995</v>
+      </c>
+      <c r="AD53">
+        <v>-0.92888649336708129</v>
+      </c>
+      <c r="AJ53">
+        <v>269.13944999999995</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" si="5"/>
+        <v>-1.1948404745102117</v>
+      </c>
+      <c r="AL53">
+        <f t="shared" si="6"/>
+        <v>-0.19484047451021169</v>
+      </c>
+      <c r="AM53">
+        <f t="shared" si="7"/>
+        <v>-2.1948404745102117</v>
+      </c>
+    </row>
+    <row r="54" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AB54" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC54">
+        <v>283.26425499999999</v>
+      </c>
+      <c r="AD54">
+        <v>-1.6062739719422199</v>
+      </c>
+      <c r="AJ54">
+        <v>283.26425499999999</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" si="5"/>
+        <v>-1.0136966942290755</v>
+      </c>
+      <c r="AL54">
+        <f t="shared" si="6"/>
+        <v>-1.369669422907549E-2</v>
+      </c>
+      <c r="AM54">
+        <f t="shared" si="7"/>
+        <v>-2.0136966942290755</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AA2:AD54">
+    <sortCondition ref="AC1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/products analysis/lockmassProd2000_neg100_300_noblanks2.xlsx
+++ b/products analysis/lockmassProd2000_neg100_300_noblanks2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D9B66441-6E58-4603-B775-FD95DBBA1B99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BF2F07C8-8C25-45C4-B19A-F93A49FE733B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lockmassProd2000_neg300_500_nob" sheetId="1" r:id="rId1"/>
     <sheet name="Curve creation" sheetId="2" r:id="rId2"/>
+    <sheet name="Final List" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lockmassProd2000_neg300_500_nob!$G$1:$G$1623</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="80">
   <si>
     <t>mz</t>
   </si>
@@ -3222,7 +3223,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3787,16 +3788,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49915,8 +49916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2:AM54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53331,4 +53332,618 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>102.01966900000001</v>
+      </c>
+      <c r="C2">
+        <v>-15.379387282696282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>117.05572000000001</v>
+      </c>
+      <c r="C3">
+        <v>-12.130974889652473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>121.029505</v>
+      </c>
+      <c r="C4">
+        <v>-10.782494731364141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>129.01933500000001</v>
+      </c>
+      <c r="C5">
+        <v>-11.122363946573993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>129.05572000000001</v>
+      </c>
+      <c r="C6">
+        <v>-10.228140217427651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>131.03498500000001</v>
+      </c>
+      <c r="C7">
+        <v>-9.8065413598953111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>131.07137</v>
+      </c>
+      <c r="C8">
+        <v>-9.6893776269006064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>137.02441999999999</v>
+      </c>
+      <c r="C9">
+        <v>-8.9035224523434628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>138.01966899999999</v>
+      </c>
+      <c r="C10">
+        <v>-9.1943417135663079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>143.03498500000001</v>
+      </c>
+      <c r="C11">
+        <v>-8.9838160922361876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>143.07137</v>
+      </c>
+      <c r="C12">
+        <v>-8.8766886065689548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>145.050635</v>
+      </c>
+      <c r="C13">
+        <v>-8.5142681382147192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>145.08702</v>
+      </c>
+      <c r="C14">
+        <v>-8.408746695530315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>148.06153399999999</v>
+      </c>
+      <c r="C15">
+        <v>-7.6589777869484852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <v>151.04007000000001</v>
+      </c>
+      <c r="C16">
+        <v>-7.7462887828500859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>155.07137</v>
+      </c>
+      <c r="C17">
+        <v>-6.9000486679041533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>157.08702</v>
+      </c>
+      <c r="C18">
+        <v>-7.1298061417551946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>157.12340499999999</v>
+      </c>
+      <c r="C19">
+        <v>-7.6691311520316807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>165.01933500000001</v>
+      </c>
+      <c r="C20">
+        <v>-6.8779819043931614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>167.07137</v>
+      </c>
+      <c r="C21">
+        <v>-7.0029951870382803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>169.08702</v>
+      </c>
+      <c r="C22">
+        <v>-6.6238082614858378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>171.06628499999999</v>
+      </c>
+      <c r="C23">
+        <v>-6.3425706590233286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>171.10267000000002</v>
+      </c>
+      <c r="C24">
+        <v>-6.2535552485942727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>171.13905500000001</v>
+      </c>
+      <c r="C25">
+        <v>-6.7488978480764743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>173.04554999999999</v>
+      </c>
+      <c r="C26">
+        <v>-6.0677665504384475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>173.08193500000002</v>
+      </c>
+      <c r="C27">
+        <v>-6.5575878846339055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>175.06120000000001</v>
+      </c>
+      <c r="C28">
+        <v>-6.2835168501535144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>183.06628499999999</v>
+      </c>
+      <c r="C29">
+        <v>-4.8343145215542176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30">
+        <v>185.08193500000002</v>
+      </c>
+      <c r="C30">
+        <v>-5.5921178909312426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>187.06120000000001</v>
+      </c>
+      <c r="C31">
+        <v>-4.8112596305458064</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>187.09758500000001</v>
+      </c>
+      <c r="C32">
+        <v>-5.2646323575701119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>194.067014</v>
+      </c>
+      <c r="C33">
+        <v>-4.7097133158061082</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34">
+        <v>197.08193500000002</v>
+      </c>
+      <c r="C34">
+        <v>-4.2368165302591319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>199.06120000000001</v>
+      </c>
+      <c r="C35">
+        <v>-4.0188645503320446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>199.09758500000001</v>
+      </c>
+      <c r="C36">
+        <v>-4.4450564280370592</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>201.07685000000001</v>
+      </c>
+      <c r="C37">
+        <v>-4.2272394858682452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>201.113235</v>
+      </c>
+      <c r="C38">
+        <v>-4.1518898544644962</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39">
+        <v>211.09758500000001</v>
+      </c>
+      <c r="C39">
+        <v>-3.7186593110839481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>213.07685000000001</v>
+      </c>
+      <c r="C40">
+        <v>-3.0505425624950195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>215.0925</v>
+      </c>
+      <c r="C41">
+        <v>-3.2544137986904045</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>215.128885</v>
+      </c>
+      <c r="C42">
+        <v>-3.1841377321518936</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43">
+        <v>221.08193500000002</v>
+      </c>
+      <c r="C43">
+        <v>-3.3245592862218083</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>225.07685000000001</v>
+      </c>
+      <c r="C44">
+        <v>-2.4436098159541828</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>227.128885</v>
+      </c>
+      <c r="C45">
+        <v>-2.5756301317683392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>239.0925</v>
+      </c>
+      <c r="C46">
+        <v>-2.5094890052657286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>239.128885</v>
+      </c>
+      <c r="C47">
+        <v>-2.446379491130676</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>241.10814999999999</v>
+      </c>
+      <c r="C48">
+        <v>-1.8663823682473097</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49">
+        <v>253.14453499999999</v>
+      </c>
+      <c r="C49">
+        <v>-1.7183859014841285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50">
+        <v>255.232955</v>
+      </c>
+      <c r="C50">
+        <v>-0.99908728482921105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>259.08232999999996</v>
+      </c>
+      <c r="C51">
+        <v>-0.50177100057730173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>265.14790699999998</v>
+      </c>
+      <c r="C52">
+        <v>-0.78069633787064374</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53">
+        <v>269.13944999999995</v>
+      </c>
+      <c r="C53">
+        <v>-0.92888649336708129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>283.26425499999999</v>
+      </c>
+      <c r="C54">
+        <v>-1.6062739719422199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/products analysis/lockmassProd2000_neg100_300_noblanks2.xlsx
+++ b/products analysis/lockmassProd2000_neg100_300_noblanks2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BF2F07C8-8C25-45C4-B19A-F93A49FE733B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{56124AF1-A670-4053-A658-2DBC065C1442}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lockmassProd2000_neg300_500_nob" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="89">
   <si>
     <t>mz</t>
   </si>
@@ -266,7 +266,34 @@
     <t>LOBF-1ppm</t>
   </si>
   <si>
-    <t>y = -0.0003456698x2 + 0.2037737937x - 30.9994545499</t>
+    <t>(current-ref)/ref</t>
+  </si>
+  <si>
+    <t>x10^6</t>
+  </si>
+  <si>
+    <t>=ppm</t>
+  </si>
+  <si>
+    <t>current=?</t>
+  </si>
+  <si>
+    <t>(current-ref)x10^6</t>
+  </si>
+  <si>
+    <t>=ppm*ref</t>
+  </si>
+  <si>
+    <t>(current-ref)=</t>
+  </si>
+  <si>
+    <t>(ppm/10^6)*ref</t>
+  </si>
+  <si>
+    <t>current=</t>
+  </si>
+  <si>
+    <t>((ppm/10^6)*ref)+ref</t>
   </si>
 </sst>
 </file>
@@ -775,7 +802,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -786,6 +813,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -984,7 +1012,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Curve creation'!$AC$2:$AC$54</c:f>
+              <c:f>'Curve creation'!$AD$2:$AD$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
@@ -1152,7 +1180,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Curve creation'!$AD$2:$AD$54</c:f>
+              <c:f>'Curve creation'!$AE$2:$AE$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
@@ -1403,7 +1431,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Curve creation'!$AC$2:$AC$28</c:f>
+              <c:f>'Curve creation'!$AD$2:$AD$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1493,7 +1521,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Curve creation'!$AD$2:$AD$28</c:f>
+              <c:f>'Curve creation'!$AE$2:$AE$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1664,7 +1692,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Curve creation'!$AC$29:$AC$54</c:f>
+              <c:f>'Curve creation'!$AD$29:$AD$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1751,7 +1779,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Curve creation'!$AD$29:$AD$54</c:f>
+              <c:f>'Curve creation'!$AE$29:$AE$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1871,7 +1899,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Curve creation'!$AJ$2:$AJ$54</c:f>
+              <c:f>'Curve creation'!$AK$2:$AK$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
@@ -2039,7 +2067,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Curve creation'!$AK$2:$AK$54</c:f>
+              <c:f>'Curve creation'!$AL$2:$AL$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
@@ -2243,7 +2271,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Curve creation'!$AJ$2:$AJ$54</c:f>
+              <c:f>'Curve creation'!$AK$2:$AK$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
@@ -2411,7 +2439,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Curve creation'!$AL$2:$AL$54</c:f>
+              <c:f>'Curve creation'!$AM$2:$AM$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
@@ -2615,7 +2643,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Curve creation'!$AJ$2:$AJ$54</c:f>
+              <c:f>'Curve creation'!$AK$2:$AK$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
@@ -2783,7 +2811,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Curve creation'!$AM$2:$AM$54</c:f>
+              <c:f>'Curve creation'!$AN$2:$AN$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
@@ -3788,16 +3816,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49914,10 +49942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM54"/>
+  <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49943,12 +49971,13 @@
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.7109375" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" customWidth="1"/>
+    <col min="30" max="30" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -50015,29 +50044,30 @@
       <c r="AB1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD1" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AG1" s="9"/>
+      <c r="AK1" t="s">
         <v>75</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>77</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100.932</v>
       </c>
@@ -50095,28 +50125,31 @@
         <v>11</v>
       </c>
       <c r="AC2">
+        <v>102.019119</v>
+      </c>
+      <c r="AD2">
         <v>102.01966900000001</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>-15.379387282696282</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>102.01966900000001</v>
       </c>
-      <c r="AK2">
-        <f>(-0.0003456698*(AJ2^2))+(0.2037737937*AJ2)-30.9994545499</f>
+      <c r="AL2">
+        <f>(-0.0003456698*(AK2^2))+(0.2037737937*AK2)-30.9994545499</f>
         <v>-13.808255290457261</v>
       </c>
-      <c r="AL2">
-        <f>AK2+1</f>
+      <c r="AM2">
+        <f>AL2+1</f>
         <v>-12.808255290457261</v>
       </c>
-      <c r="AM2">
-        <f>AK2-1</f>
+      <c r="AN2">
+        <f>AL2-1</f>
         <v>-14.808255290457261</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102.018</v>
       </c>
@@ -50184,28 +50217,31 @@
         <v>14</v>
       </c>
       <c r="AC3">
+        <v>117.05517</v>
+      </c>
+      <c r="AD3">
         <v>117.05572000000001</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-12.130974889652473</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>117.05572000000001</v>
       </c>
-      <c r="AK3">
-        <f t="shared" ref="AK3:AK54" si="5">(-0.0003456698*(AJ3^2))+(0.2037737937*AJ3)-30.9994545499</f>
+      <c r="AL3">
+        <f t="shared" ref="AL3:AL54" si="5">(-0.0003456698*(AK3^2))+(0.2037737937*AK3)-30.9994545499</f>
         <v>-11.882948385396325</v>
       </c>
-      <c r="AL3">
-        <f t="shared" ref="AL3:AL54" si="6">AK3+1</f>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM54" si="6">AL3+1</f>
         <v>-10.882948385396325</v>
       </c>
-      <c r="AM3">
-        <f t="shared" ref="AM3:AM54" si="7">AK3-1</f>
+      <c r="AN3">
+        <f t="shared" ref="AN3:AN54" si="7">AL3-1</f>
         <v>-12.882948385396325</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>112.98399999999999</v>
       </c>
@@ -50273,28 +50309,31 @@
         <v>17</v>
       </c>
       <c r="AC4">
+        <v>121.028955</v>
+      </c>
+      <c r="AD4">
         <v>121.029505</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>-10.782494731364141</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>121.029505</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <f t="shared" si="5"/>
         <v>-11.400233164100662</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <f t="shared" si="6"/>
         <v>-10.400233164100662</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <f t="shared" si="7"/>
         <v>-12.400233164100662</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>117.054</v>
       </c>
@@ -50362,28 +50401,31 @@
         <v>18</v>
       </c>
       <c r="AC5">
+        <v>129.01878500000001</v>
+      </c>
+      <c r="AD5">
         <v>129.01933500000001</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-11.122363946573993</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>129.01933500000001</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <f t="shared" si="5"/>
         <v>-10.462710816925192</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <f t="shared" si="6"/>
         <v>-9.4627108169251919</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <f t="shared" si="7"/>
         <v>-11.462710816925192</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>117.91800000000001</v>
       </c>
@@ -50445,28 +50487,31 @@
         <v>19</v>
       </c>
       <c r="AC6">
+        <v>129.05517</v>
+      </c>
+      <c r="AD6">
         <v>129.05572000000001</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>-10.228140217427651</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>129.05572000000001</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <f t="shared" si="5"/>
         <v>-10.458542367906471</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <f t="shared" si="6"/>
         <v>-9.4585423679064711</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <f t="shared" si="7"/>
         <v>-11.458542367906471</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>121.02800000000001</v>
       </c>
@@ -50534,28 +50579,31 @@
         <v>54</v>
       </c>
       <c r="AC7">
+        <v>131.034435</v>
+      </c>
+      <c r="AD7">
         <v>131.03498500000001</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>-9.8065413598953111</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>131.03498500000001</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <f t="shared" si="5"/>
         <v>-10.23316684349372</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <f t="shared" si="6"/>
         <v>-9.23316684349372</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <f t="shared" si="7"/>
         <v>-11.23316684349372</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>129.018</v>
       </c>
@@ -50623,28 +50671,31 @@
         <v>20</v>
       </c>
       <c r="AC8">
+        <v>131.07082</v>
+      </c>
+      <c r="AD8">
         <v>131.07137</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-9.6893776269006064</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>131.07137</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <f t="shared" si="5"/>
         <v>-10.229049096923919</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <f t="shared" si="6"/>
         <v>-9.2290490969239194</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <f t="shared" si="7"/>
         <v>-11.229049096923919</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>129.054</v>
       </c>
@@ -50712,28 +50763,31 @@
         <v>70</v>
       </c>
       <c r="AC9">
+        <v>137.02386999999999</v>
+      </c>
+      <c r="AD9">
         <v>137.02441999999999</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-8.9035224523434628</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>137.02441999999999</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <f t="shared" si="5"/>
         <v>-9.5676582435787161</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <f t="shared" si="6"/>
         <v>-8.5676582435787161</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <f t="shared" si="7"/>
         <v>-10.567658243578716</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>131.07</v>
       </c>
@@ -50801,28 +50855,31 @@
         <v>21</v>
       </c>
       <c r="AC10">
+        <v>138.01911899999999</v>
+      </c>
+      <c r="AD10">
         <v>138.01966899999999</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-9.1943417135663079</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>138.01966899999999</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <f t="shared" si="5"/>
         <v>-9.4594753157665892</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <f t="shared" si="6"/>
         <v>-8.4594753157665892</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <f t="shared" si="7"/>
         <v>-10.459475315766589</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>132.922</v>
       </c>
@@ -50884,28 +50941,31 @@
         <v>22</v>
       </c>
       <c r="AC11">
+        <v>143.034435</v>
+      </c>
+      <c r="AD11">
         <v>143.03498500000001</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-8.9838160922361876</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>143.03498500000001</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <f t="shared" si="5"/>
         <v>-8.9247338596845935</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <f t="shared" si="6"/>
         <v>-7.9247338596845935</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <f t="shared" si="7"/>
         <v>-9.9247338596845935</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>138.018</v>
       </c>
@@ -50973,28 +51033,31 @@
         <v>23</v>
       </c>
       <c r="AC12">
+        <v>143.07082</v>
+      </c>
+      <c r="AD12">
         <v>143.07137</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-8.8766886065689548</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>143.07137</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <f t="shared" si="5"/>
         <v>-8.9209179658109399</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <f t="shared" si="6"/>
         <v>-7.9209179658109399</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <f t="shared" si="7"/>
         <v>-9.9209179658109399</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>143.03399999999999</v>
       </c>
@@ -51062,28 +51125,31 @@
         <v>55</v>
       </c>
       <c r="AC13">
+        <v>145.050085</v>
+      </c>
+      <c r="AD13">
         <v>145.050635</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-8.5142681382147192</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>145.050635</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <f t="shared" si="5"/>
         <v>-8.714720675813588</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <f t="shared" si="6"/>
         <v>-7.714720675813588</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <f t="shared" si="7"/>
         <v>-9.714720675813588</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>143.07</v>
       </c>
@@ -51151,28 +51217,31 @@
         <v>24</v>
       </c>
       <c r="AC14">
+        <v>145.08646999999999</v>
+      </c>
+      <c r="AD14">
         <v>145.08702</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-8.408746695530315</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>145.08702</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <f t="shared" si="5"/>
         <v>-8.710955484388851</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <f t="shared" si="6"/>
         <v>-7.710955484388851</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <f t="shared" si="7"/>
         <v>-9.710955484388851</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>145.08600000000001</v>
       </c>
@@ -51240,28 +51309,31 @@
         <v>25</v>
       </c>
       <c r="AC15">
+        <v>148.06098399999999</v>
+      </c>
+      <c r="AD15">
         <v>148.06153399999999</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-7.6589777869484852</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>148.06153399999999</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <f t="shared" si="5"/>
         <v>-8.4062427255941259</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <f t="shared" si="6"/>
         <v>-7.4062427255941259</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <f t="shared" si="7"/>
         <v>-9.4062427255941259</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>148.06</v>
       </c>
@@ -51329,28 +51401,31 @@
         <v>56</v>
       </c>
       <c r="AC16">
+        <v>151.03952000000001</v>
+      </c>
+      <c r="AD16">
         <v>151.04007000000001</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-7.7462887828500859</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>151.04007000000001</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <f t="shared" si="5"/>
         <v>-8.1072471487391375</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <f t="shared" si="6"/>
         <v>-7.1072471487391375</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <f t="shared" si="7"/>
         <v>-9.1072471487391375</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>155.07</v>
       </c>
@@ -51418,28 +51493,31 @@
         <v>26</v>
       </c>
       <c r="AC17">
+        <v>155.07082</v>
+      </c>
+      <c r="AD17">
         <v>155.07137</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-6.9000486679041533</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>155.07137</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <f t="shared" si="5"/>
         <v>-7.7123397370979632</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <f t="shared" si="6"/>
         <v>-6.7123397370979632</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <f t="shared" si="7"/>
         <v>-8.7123397370979632</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>157.08600000000001</v>
       </c>
@@ -51507,28 +51585,31 @@
         <v>27</v>
       </c>
       <c r="AC18">
+        <v>157.08646999999999</v>
+      </c>
+      <c r="AD18">
         <v>157.08702</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-7.1298061417551946</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>157.08702</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <f t="shared" si="5"/>
         <v>-7.5190992396527534</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <f t="shared" si="6"/>
         <v>-6.5190992396527534</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <f t="shared" si="7"/>
         <v>-8.5190992396527534</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>157.12200000000001</v>
       </c>
@@ -51596,28 +51677,31 @@
         <v>28</v>
       </c>
       <c r="AC19">
+        <v>157.12285499999999</v>
+      </c>
+      <c r="AD19">
         <v>157.12340499999999</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-7.6691311520316807</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>157.12340499999999</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <f t="shared" si="5"/>
         <v>-7.5156368161667046</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <f t="shared" si="6"/>
         <v>-6.5156368161667046</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <f t="shared" si="7"/>
         <v>-8.5156368161667046</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>165.04</v>
       </c>
@@ -51686,28 +51770,31 @@
         <v>71</v>
       </c>
       <c r="AC20">
+        <v>165.01878500000001</v>
+      </c>
+      <c r="AD20">
         <v>165.01933500000001</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-6.8779819043931614</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>165.01933500000001</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <f t="shared" si="5"/>
         <v>-6.7859046207671661</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <f t="shared" si="6"/>
         <v>-5.7859046207671661</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <f t="shared" si="7"/>
         <v>-7.7859046207671661</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>167.07</v>
       </c>
@@ -51748,28 +51835,31 @@
         <v>30</v>
       </c>
       <c r="AC21">
+        <v>167.07082</v>
+      </c>
+      <c r="AD21">
         <v>167.07137</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-7.0029951870382803</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>167.07137</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <f t="shared" si="5"/>
         <v>-6.6033144107849893</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <f t="shared" si="6"/>
         <v>-5.6033144107849893</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <f t="shared" si="7"/>
         <v>-7.6033144107849893</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>169.08600000000001</v>
       </c>
@@ -51810,28 +51900,31 @@
         <v>32</v>
       </c>
       <c r="AC22">
+        <v>169.08646999999999</v>
+      </c>
+      <c r="AD22">
         <v>169.08702</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-6.6238082614858378</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>169.08702</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <f t="shared" si="5"/>
         <v>-6.4267958973166586</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <f t="shared" si="6"/>
         <v>-5.4267958973166586</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <f t="shared" si="7"/>
         <v>-7.4267958973166586</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>171.13800000000001</v>
       </c>
@@ -51872,28 +51965,31 @@
         <v>57</v>
       </c>
       <c r="AC23">
+        <v>171.06573499999999</v>
+      </c>
+      <c r="AD23">
         <v>171.06628499999999</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-6.3425706590233286</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>171.06628499999999</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <f t="shared" si="5"/>
         <v>-6.2561969730154274</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <f t="shared" si="6"/>
         <v>-5.2561969730154274</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <f t="shared" si="7"/>
         <v>-7.2561969730154274</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>173.04400000000001</v>
       </c>
@@ -51934,28 +52030,31 @@
         <v>58</v>
       </c>
       <c r="AC24">
+        <v>171.10212000000001</v>
+      </c>
+      <c r="AD24">
         <v>171.10267000000002</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-6.2535552485942727</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>171.10267000000002</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <f t="shared" si="5"/>
         <v>-6.2530861894319116</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <f t="shared" si="6"/>
         <v>-5.2530861894319116</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <f t="shared" si="7"/>
         <v>-7.2530861894319116</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>174.048</v>
       </c>
@@ -51996,28 +52095,31 @@
         <v>33</v>
       </c>
       <c r="AC25">
+        <v>171.13850500000001</v>
+      </c>
+      <c r="AD25">
         <v>171.13905500000001</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-6.7488978480764743</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>171.13905500000001</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <f t="shared" si="5"/>
         <v>-6.2499763210909229</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <f t="shared" si="6"/>
         <v>-5.2499763210909229</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <f t="shared" si="7"/>
         <v>-7.2499763210909229</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>175.06</v>
       </c>
@@ -52058,28 +52160,31 @@
         <v>34</v>
       </c>
       <c r="AC26">
+        <v>173.04499999999999</v>
+      </c>
+      <c r="AD26">
         <v>173.04554999999999</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-6.0677665504384475</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>173.04554999999999</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <f t="shared" si="5"/>
         <v>-6.0883063646424702</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <f t="shared" si="6"/>
         <v>-5.0883063646424702</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <f t="shared" si="7"/>
         <v>-7.0883063646424702</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>182.988</v>
       </c>
@@ -52114,28 +52219,31 @@
         <v>59</v>
       </c>
       <c r="AC27">
+        <v>173.08138500000001</v>
+      </c>
+      <c r="AD27">
         <v>173.08193500000002</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-6.5575878846339055</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>173.08193500000002</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <f t="shared" si="5"/>
         <v>-6.0852453682653476</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <f t="shared" si="6"/>
         <v>-5.0852453682653476</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <f t="shared" si="7"/>
         <v>-7.0852453682653476</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>187.06</v>
       </c>
@@ -52176,28 +52284,31 @@
         <v>36</v>
       </c>
       <c r="AC28">
+        <v>175.06065000000001</v>
+      </c>
+      <c r="AD28">
         <v>175.06120000000001</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-6.2835168501535144</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>175.06120000000001</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <f t="shared" si="5"/>
         <v>-5.9201128630270503</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <f t="shared" si="6"/>
         <v>-4.9201128630270503</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <f t="shared" si="7"/>
         <v>-6.9201128630270503</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>194.066</v>
       </c>
@@ -52238,28 +52349,31 @@
         <v>60</v>
       </c>
       <c r="AC29">
+        <v>183.06573499999999</v>
+      </c>
+      <c r="AD29">
         <v>183.06628499999999</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-4.8343145215542176</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>183.06628499999999</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <f t="shared" si="5"/>
         <v>-5.2798666643600569</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <f t="shared" si="6"/>
         <v>-4.2798666643600569</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <f t="shared" si="7"/>
         <v>-6.2798666643600569</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>199.06</v>
       </c>
@@ -52300,28 +52414,31 @@
         <v>61</v>
       </c>
       <c r="AC30">
+        <v>185.08138500000001</v>
+      </c>
+      <c r="AD30">
         <v>185.08193500000002</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-5.5921178909312426</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>185.08193500000002</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <f t="shared" si="5"/>
         <v>-5.1256370435868526</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <f t="shared" si="6"/>
         <v>-4.1256370435868526</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <f t="shared" si="7"/>
         <v>-6.1256370435868526</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>201.07599999999999</v>
       </c>
@@ -52362,28 +52479,31 @@
         <v>37</v>
       </c>
       <c r="AC31">
+        <v>187.06065000000001</v>
+      </c>
+      <c r="AD31">
         <v>187.06120000000001</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-4.8112596305458064</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>187.06120000000001</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <f t="shared" si="5"/>
         <v>-4.9769246696292946</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <f t="shared" si="6"/>
         <v>-3.9769246696292946</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <f t="shared" si="7"/>
         <v>-5.9769246696292946</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201.11199999999999</v>
       </c>
@@ -52424,28 +52544,31 @@
         <v>62</v>
       </c>
       <c r="AC32">
+        <v>187.09703500000001</v>
+      </c>
+      <c r="AD32">
         <v>187.09758500000001</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-5.2646323575701119</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>187.09758500000001</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <f t="shared" si="5"/>
         <v>-4.9742162283972391</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <f t="shared" si="6"/>
         <v>-3.9742162283972391</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <f t="shared" si="7"/>
         <v>-5.9742162283972391</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>213.07599999999999</v>
       </c>
@@ -52486,28 +52609,31 @@
         <v>38</v>
       </c>
       <c r="AC33">
+        <v>194.066464</v>
+      </c>
+      <c r="AD33">
         <v>194.067014</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-4.7097133158061082</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>194.067014</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <f t="shared" si="5"/>
         <v>-4.4723009300484193</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <f t="shared" si="6"/>
         <v>-3.4723009300484193</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <f t="shared" si="7"/>
         <v>-5.4723009300484193</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>215.09200000000001</v>
       </c>
@@ -52548,28 +52674,31 @@
         <v>63</v>
       </c>
       <c r="AC34">
+        <v>197.08138500000001</v>
+      </c>
+      <c r="AD34">
         <v>197.08193500000002</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>-4.2368165302591319</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>197.08193500000002</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <f t="shared" si="5"/>
         <v>-4.2655816213083639</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <f t="shared" si="6"/>
         <v>-3.2655816213083639</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <f t="shared" si="7"/>
         <v>-5.2655816213083639</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>215.12799999999999</v>
       </c>
@@ -52610,28 +52739,31 @@
         <v>39</v>
       </c>
       <c r="AC35">
+        <v>199.06065000000001</v>
+      </c>
+      <c r="AD35">
         <v>199.06120000000001</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>-4.0188645503320446</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>199.06120000000001</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <f t="shared" si="5"/>
         <v>-4.133289378631531</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <f t="shared" si="6"/>
         <v>-3.133289378631531</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <f t="shared" si="7"/>
         <v>-5.133289378631531</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>225.07599999999999</v>
       </c>
@@ -52663,28 +52795,31 @@
         <v>64</v>
       </c>
       <c r="AC36">
+        <v>199.09703500000001</v>
+      </c>
+      <c r="AD36">
         <v>199.09758500000001</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>-4.4450564280370592</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>199.09758500000001</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <f t="shared" si="5"/>
         <v>-4.1308827900956331</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <f t="shared" si="6"/>
         <v>-3.1308827900956331</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <f t="shared" si="7"/>
         <v>-5.1308827900956331</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>227.12799999999999</v>
       </c>
@@ -52716,28 +52851,31 @@
         <v>40</v>
       </c>
       <c r="AC37">
+        <v>201.0763</v>
+      </c>
+      <c r="AD37">
         <v>201.07685000000001</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>-4.2272394858682452</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>201.07685000000001</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <f t="shared" si="5"/>
         <v>-4.0013486505534601</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <f t="shared" si="6"/>
         <v>-3.0013486505534601</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <f t="shared" si="7"/>
         <v>-5.0013486505534601</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>239.09200000000001</v>
       </c>
@@ -52769,28 +52907,31 @@
         <v>41</v>
       </c>
       <c r="AC38">
+        <v>201.112685</v>
+      </c>
+      <c r="AD38">
         <v>201.113235</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>-4.1518898544644962</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>201.113235</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <f t="shared" si="5"/>
         <v>-3.9989927644664753</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <f t="shared" si="6"/>
         <v>-2.9989927644664753</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <f t="shared" si="7"/>
         <v>-4.9989927644664753</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>239.12799999999999</v>
       </c>
@@ -52822,28 +52963,31 @@
         <v>65</v>
       </c>
       <c r="AC39">
+        <v>211.09703500000001</v>
+      </c>
+      <c r="AD39">
         <v>211.09758500000001</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>-3.7186593110839481</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>211.09758500000001</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <f t="shared" si="5"/>
         <v>-3.3871022541940192</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <f t="shared" si="6"/>
         <v>-2.3871022541940192</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <f t="shared" si="7"/>
         <v>-4.3871022541940192</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>241.108</v>
       </c>
@@ -52875,28 +53019,31 @@
         <v>42</v>
       </c>
       <c r="AC40">
+        <v>213.0763</v>
+      </c>
+      <c r="AD40">
         <v>213.07685000000001</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>-3.0505425624950195</v>
       </c>
-      <c r="AJ40">
+      <c r="AK40">
         <v>213.07685000000001</v>
       </c>
-      <c r="AK40">
+      <c r="AL40">
         <f t="shared" si="5"/>
         <v>-3.273988245932582</v>
       </c>
-      <c r="AL40">
+      <c r="AM40">
         <f t="shared" si="6"/>
         <v>-2.273988245932582</v>
       </c>
-      <c r="AM40">
+      <c r="AN40">
         <f t="shared" si="7"/>
         <v>-4.273988245932582</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>259.08199999999999</v>
       </c>
@@ -52928,28 +53075,31 @@
         <v>43</v>
       </c>
       <c r="AC41">
+        <v>215.09195</v>
+      </c>
+      <c r="AD41">
         <v>215.0925</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>-3.2544137986904045</v>
       </c>
-      <c r="AJ41">
+      <c r="AK41">
         <v>215.0925</v>
       </c>
-      <c r="AK41">
+      <c r="AL41">
         <f t="shared" si="5"/>
         <v>-3.1615783074149775</v>
       </c>
-      <c r="AL41">
+      <c r="AM41">
         <f t="shared" si="6"/>
         <v>-2.1615783074149775</v>
       </c>
-      <c r="AM41">
+      <c r="AN41">
         <f t="shared" si="7"/>
         <v>-4.1615783074149775</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>265.14800000000002</v>
       </c>
@@ -52981,132 +53131,147 @@
         <v>44</v>
       </c>
       <c r="AC42">
+        <v>215.12833499999999</v>
+      </c>
+      <c r="AD42">
         <v>215.128885</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>-3.1841377321518936</v>
       </c>
-      <c r="AJ42">
+      <c r="AK42">
         <v>215.128885</v>
       </c>
-      <c r="AK42">
+      <c r="AL42">
         <f t="shared" si="5"/>
         <v>-3.1595749764730527</v>
       </c>
-      <c r="AL42">
+      <c r="AM42">
         <f t="shared" si="6"/>
         <v>-2.1595749764730527</v>
       </c>
-      <c r="AM42">
+      <c r="AN42">
         <f t="shared" si="7"/>
         <v>-4.1595749764730527</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB43" t="s">
         <v>67</v>
       </c>
       <c r="AC43">
+        <v>221.08138500000001</v>
+      </c>
+      <c r="AD43">
         <v>221.08193500000002</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>-3.3245592862218083</v>
       </c>
-      <c r="AJ43">
+      <c r="AK43">
         <v>221.08193500000002</v>
       </c>
-      <c r="AK43">
+      <c r="AL43">
         <f t="shared" si="5"/>
         <v>-2.844129483951388</v>
       </c>
-      <c r="AL43">
+      <c r="AM43">
         <f t="shared" si="6"/>
         <v>-1.844129483951388</v>
       </c>
-      <c r="AM43">
+      <c r="AN43">
         <f t="shared" si="7"/>
         <v>-3.844129483951388</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB44" t="s">
         <v>45</v>
       </c>
       <c r="AC44">
+        <v>225.0763</v>
+      </c>
+      <c r="AD44">
         <v>225.07685000000001</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>-2.4436098159541828</v>
       </c>
-      <c r="AJ44">
+      <c r="AK44">
         <v>225.07685000000001</v>
       </c>
-      <c r="AK44">
+      <c r="AL44">
         <f t="shared" si="5"/>
         <v>-2.6461807437117031</v>
       </c>
-      <c r="AL44">
+      <c r="AM44">
         <f t="shared" si="6"/>
         <v>-1.6461807437117031</v>
       </c>
-      <c r="AM44">
+      <c r="AN44">
         <f t="shared" si="7"/>
         <v>-3.6461807437117031</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB45" t="s">
         <v>46</v>
       </c>
       <c r="AC45">
+        <v>227.12833499999999</v>
+      </c>
+      <c r="AD45">
         <v>227.128885</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>-2.5756301317683392</v>
       </c>
-      <c r="AJ45">
+      <c r="AK45">
         <v>227.128885</v>
       </c>
-      <c r="AK45">
+      <c r="AL45">
         <f t="shared" si="5"/>
         <v>-2.5487913109252069</v>
       </c>
-      <c r="AL45">
+      <c r="AM45">
         <f t="shared" si="6"/>
         <v>-1.5487913109252069</v>
       </c>
-      <c r="AM45">
+      <c r="AN45">
         <f t="shared" si="7"/>
         <v>-3.5487913109252069</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB46" t="s">
         <v>47</v>
       </c>
       <c r="AC46">
+        <v>239.09195</v>
+      </c>
+      <c r="AD46">
         <v>239.0925</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>-2.5094890052657286</v>
       </c>
-      <c r="AJ46">
+      <c r="AK46">
         <v>239.0925</v>
       </c>
-      <c r="AK46">
+      <c r="AL46">
         <f t="shared" si="5"/>
         <v>-2.0389601733269735</v>
       </c>
-      <c r="AL46">
+      <c r="AM46">
         <f t="shared" si="6"/>
         <v>-1.0389601733269735</v>
       </c>
-      <c r="AM46">
+      <c r="AN46">
         <f t="shared" si="7"/>
         <v>-3.0389601733269735</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
@@ -53114,28 +53279,31 @@
         <v>48</v>
       </c>
       <c r="AC47">
+        <v>239.12833499999999</v>
+      </c>
+      <c r="AD47">
         <v>239.128885</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>-2.446379491130676</v>
       </c>
-      <c r="AJ47">
+      <c r="AK47">
         <v>239.128885</v>
       </c>
-      <c r="AK47">
+      <c r="AL47">
         <f t="shared" si="5"/>
         <v>-2.0375605477773604</v>
       </c>
-      <c r="AL47">
+      <c r="AM47">
         <f t="shared" si="6"/>
         <v>-1.0375605477773604</v>
       </c>
-      <c r="AM47">
+      <c r="AN47">
         <f t="shared" si="7"/>
         <v>-3.0375605477773604</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
@@ -53143,28 +53311,31 @@
         <v>49</v>
       </c>
       <c r="AC48">
+        <v>241.10759999999999</v>
+      </c>
+      <c r="AD48">
         <v>241.10814999999999</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>-1.8663823682473097</v>
       </c>
-      <c r="AJ48">
+      <c r="AK48">
         <v>241.10814999999999</v>
       </c>
-      <c r="AK48">
+      <c r="AL48">
         <f t="shared" si="5"/>
         <v>-1.9628030083467145</v>
       </c>
-      <c r="AL48">
+      <c r="AM48">
         <f t="shared" si="6"/>
         <v>-0.96280300834671451</v>
       </c>
-      <c r="AM48">
+      <c r="AN48">
         <f t="shared" si="7"/>
         <v>-2.9628030083467145</v>
       </c>
     </row>
-    <row r="49" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>31</v>
       </c>
@@ -53173,160 +53344,178 @@
         <v>72</v>
       </c>
       <c r="AC49">
+        <v>253.14398499999999</v>
+      </c>
+      <c r="AD49">
         <v>253.14453499999999</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>-1.7183859014841285</v>
       </c>
-      <c r="AJ49">
+      <c r="AK49">
         <v>253.14453499999999</v>
       </c>
-      <c r="AK49">
+      <c r="AL49">
         <f t="shared" si="5"/>
         <v>-1.5664982084750427</v>
       </c>
-      <c r="AL49">
+      <c r="AM49">
         <f t="shared" si="6"/>
         <v>-0.56649820847504273</v>
       </c>
-      <c r="AM49">
+      <c r="AN49">
         <f t="shared" si="7"/>
         <v>-2.5664982084750427</v>
       </c>
     </row>
-    <row r="50" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:40" x14ac:dyDescent="0.25">
       <c r="AB50" t="s">
         <v>68</v>
       </c>
       <c r="AC50">
+        <v>255.232405</v>
+      </c>
+      <c r="AD50">
         <v>255.232955</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>-0.99908728482921105</v>
       </c>
-      <c r="AJ50">
+      <c r="AK50">
         <v>255.232955</v>
       </c>
-      <c r="AK50">
+      <c r="AL50">
         <f t="shared" si="5"/>
         <v>-1.5079325453204824</v>
       </c>
-      <c r="AL50">
+      <c r="AM50">
         <f t="shared" si="6"/>
         <v>-0.50793254532048238</v>
       </c>
-      <c r="AM50">
+      <c r="AN50">
         <f t="shared" si="7"/>
         <v>-2.5079325453204824</v>
       </c>
     </row>
-    <row r="51" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:40" x14ac:dyDescent="0.25">
       <c r="AB51" t="s">
         <v>50</v>
       </c>
       <c r="AC51">
+        <v>259.08177999999998</v>
+      </c>
+      <c r="AD51">
         <v>259.08232999999996</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>-0.50177100057730173</v>
       </c>
-      <c r="AJ51">
+      <c r="AK51">
         <v>259.08232999999996</v>
       </c>
-      <c r="AK51">
+      <c r="AL51">
         <f t="shared" si="5"/>
         <v>-1.4078852412141174</v>
       </c>
-      <c r="AL51">
+      <c r="AM51">
         <f t="shared" si="6"/>
         <v>-0.4078852412141174</v>
       </c>
-      <c r="AM51">
+      <c r="AN51">
         <f t="shared" si="7"/>
         <v>-2.4078852412141174</v>
       </c>
     </row>
-    <row r="52" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:40" x14ac:dyDescent="0.25">
       <c r="AB52" t="s">
         <v>51</v>
       </c>
       <c r="AC52">
+        <v>265.147357</v>
+      </c>
+      <c r="AD52">
         <v>265.14790699999998</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>-0.78069633787064374</v>
       </c>
-      <c r="AJ52">
+      <c r="AK52">
         <v>265.14790699999998</v>
       </c>
-      <c r="AK52">
+      <c r="AL52">
         <f t="shared" si="5"/>
         <v>-1.2710262169814648</v>
       </c>
-      <c r="AL52">
+      <c r="AM52">
         <f t="shared" si="6"/>
         <v>-0.27102621698146478</v>
       </c>
-      <c r="AM52">
+      <c r="AN52">
         <f t="shared" si="7"/>
         <v>-2.2710262169814648</v>
       </c>
     </row>
-    <row r="53" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:40" x14ac:dyDescent="0.25">
       <c r="AB53" t="s">
         <v>73</v>
       </c>
       <c r="AC53">
+        <v>269.13889999999998</v>
+      </c>
+      <c r="AD53">
         <v>269.13944999999995</v>
       </c>
-      <c r="AD53">
+      <c r="AE53">
         <v>-0.92888649336708129</v>
       </c>
-      <c r="AJ53">
+      <c r="AK53">
         <v>269.13944999999995</v>
       </c>
-      <c r="AK53">
+      <c r="AL53">
         <f t="shared" si="5"/>
         <v>-1.1948404745102117</v>
       </c>
-      <c r="AL53">
+      <c r="AM53">
         <f t="shared" si="6"/>
         <v>-0.19484047451021169</v>
       </c>
-      <c r="AM53">
+      <c r="AN53">
         <f t="shared" si="7"/>
         <v>-2.1948404745102117</v>
       </c>
     </row>
-    <row r="54" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:40" x14ac:dyDescent="0.25">
       <c r="AB54" t="s">
         <v>69</v>
       </c>
       <c r="AC54">
+        <v>283.26370500000002</v>
+      </c>
+      <c r="AD54">
         <v>283.26425499999999</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>-1.6062739719422199</v>
       </c>
-      <c r="AJ54">
+      <c r="AK54">
         <v>283.26425499999999</v>
       </c>
-      <c r="AK54">
+      <c r="AL54">
         <f t="shared" si="5"/>
         <v>-1.0136966942290755</v>
       </c>
-      <c r="AL54">
+      <c r="AM54">
         <f t="shared" si="6"/>
         <v>-1.369669422907549E-2</v>
       </c>
-      <c r="AM54">
+      <c r="AN54">
         <f t="shared" si="7"/>
         <v>-2.0136966942290755</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AA2:AD54">
-    <sortCondition ref="AC1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AC2:AC54">
+    <sortCondition ref="AC2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -53336,366 +53525,402 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>102.01966900000001</v>
+        <v>102.019119</v>
       </c>
       <c r="C2">
         <v>-15.379387282696282</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>ABS(((C2/10^6)*B2))+B2</f>
+        <v>102.02068799154135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>117.05572000000001</v>
+        <v>117.05517</v>
       </c>
       <c r="C3">
         <v>-12.130974889652473</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
-        <v>121.029505</v>
+        <v>121.028955</v>
       </c>
       <c r="C4">
         <v>-10.782494731364141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
-        <v>129.01933500000001</v>
+        <v>129.01878500000001</v>
       </c>
       <c r="C5">
         <v>-11.122363946573993</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6">
-        <v>129.05572000000001</v>
+        <v>129.05517</v>
       </c>
       <c r="C6">
         <v>-10.228140217427651</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
       <c r="B7">
-        <v>131.03498500000001</v>
+        <v>131.034435</v>
       </c>
       <c r="C7">
         <v>-9.8065413598953111</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
-        <v>131.07137</v>
+        <v>131.07082</v>
       </c>
       <c r="C8">
         <v>-9.6893776269006064</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
       <c r="B9">
-        <v>137.02441999999999</v>
+        <v>137.02386999999999</v>
       </c>
       <c r="C9">
         <v>-8.9035224523434628</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10">
-        <v>138.01966899999999</v>
+        <v>138.01911899999999</v>
       </c>
       <c r="C10">
         <v>-9.1943417135663079</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11">
-        <v>143.03498500000001</v>
+        <v>143.034435</v>
       </c>
       <c r="C11">
         <v>-8.9838160922361876</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12">
-        <v>143.07137</v>
+        <v>143.07082</v>
       </c>
       <c r="C12">
         <v>-8.8766886065689548</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
       <c r="B13">
-        <v>145.050635</v>
+        <v>145.050085</v>
       </c>
       <c r="C13">
         <v>-8.5142681382147192</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14">
-        <v>145.08702</v>
+        <v>145.08646999999999</v>
       </c>
       <c r="C14">
         <v>-8.408746695530315</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15">
-        <v>148.06153399999999</v>
+        <v>148.06098399999999</v>
       </c>
       <c r="C15">
         <v>-7.6589777869484852</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
       <c r="B16">
-        <v>151.04007000000001</v>
+        <v>151.03952000000001</v>
       </c>
       <c r="C16">
         <v>-7.7462887828500859</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
       <c r="B17">
-        <v>155.07137</v>
+        <v>155.07082</v>
       </c>
       <c r="C17">
         <v>-6.9000486679041533</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18">
-        <v>157.08702</v>
+        <v>157.08646999999999</v>
       </c>
       <c r="C18">
         <v>-7.1298061417551946</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19">
-        <v>157.12340499999999</v>
+        <v>157.12285499999999</v>
       </c>
       <c r="C19">
         <v>-7.6691311520316807</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
       <c r="B20">
-        <v>165.01933500000001</v>
+        <v>165.01878500000001</v>
       </c>
       <c r="C20">
         <v>-6.8779819043931614</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21">
-        <v>167.07137</v>
+        <v>167.07082</v>
       </c>
       <c r="C21">
         <v>-7.0029951870382803</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22">
-        <v>169.08702</v>
+        <v>169.08646999999999</v>
       </c>
       <c r="C22">
         <v>-6.6238082614858378</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
       <c r="B23">
-        <v>171.06628499999999</v>
+        <v>171.06573499999999</v>
       </c>
       <c r="C23">
         <v>-6.3425706590233286</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
       <c r="B24">
-        <v>171.10267000000002</v>
+        <v>171.10212000000001</v>
       </c>
       <c r="C24">
         <v>-6.2535552485942727</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25">
-        <v>171.13905500000001</v>
+        <v>171.13850500000001</v>
       </c>
       <c r="C25">
         <v>-6.7488978480764743</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26">
-        <v>173.04554999999999</v>
+        <v>173.04499999999999</v>
       </c>
       <c r="C26">
         <v>-6.0677665504384475</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
       <c r="B27">
-        <v>173.08193500000002</v>
+        <v>173.08138500000001</v>
       </c>
       <c r="C27">
         <v>-6.5575878846339055</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28">
-        <v>175.06120000000001</v>
+        <v>175.06065000000001</v>
       </c>
       <c r="C28">
         <v>-6.2835168501535144</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
       <c r="B29">
-        <v>183.06628499999999</v>
+        <v>183.06573499999999</v>
       </c>
       <c r="C29">
         <v>-4.8343145215542176</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
       <c r="B30">
-        <v>185.08193500000002</v>
+        <v>185.08138500000001</v>
       </c>
       <c r="C30">
         <v>-5.5921178909312426</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31">
-        <v>187.06120000000001</v>
+        <v>187.06065000000001</v>
       </c>
       <c r="C31">
         <v>-4.8112596305458064</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32">
-        <v>187.09758500000001</v>
+        <v>187.09703500000001</v>
       </c>
       <c r="C32">
         <v>-5.2646323575701119</v>
@@ -53706,7 +53931,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>194.067014</v>
+        <v>194.066464</v>
       </c>
       <c r="C33">
         <v>-4.7097133158061082</v>
@@ -53717,7 +53942,7 @@
         <v>63</v>
       </c>
       <c r="B34">
-        <v>197.08193500000002</v>
+        <v>197.08138500000001</v>
       </c>
       <c r="C34">
         <v>-4.2368165302591319</v>
@@ -53728,7 +53953,7 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>199.06120000000001</v>
+        <v>199.06065000000001</v>
       </c>
       <c r="C35">
         <v>-4.0188645503320446</v>
@@ -53739,7 +53964,7 @@
         <v>64</v>
       </c>
       <c r="B36">
-        <v>199.09758500000001</v>
+        <v>199.09703500000001</v>
       </c>
       <c r="C36">
         <v>-4.4450564280370592</v>
@@ -53750,7 +53975,7 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>201.07685000000001</v>
+        <v>201.0763</v>
       </c>
       <c r="C37">
         <v>-4.2272394858682452</v>
@@ -53761,7 +53986,7 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>201.113235</v>
+        <v>201.112685</v>
       </c>
       <c r="C38">
         <v>-4.1518898544644962</v>
@@ -53772,7 +53997,7 @@
         <v>65</v>
       </c>
       <c r="B39">
-        <v>211.09758500000001</v>
+        <v>211.09703500000001</v>
       </c>
       <c r="C39">
         <v>-3.7186593110839481</v>
@@ -53783,7 +54008,7 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>213.07685000000001</v>
+        <v>213.0763</v>
       </c>
       <c r="C40">
         <v>-3.0505425624950195</v>
@@ -53794,7 +54019,7 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>215.0925</v>
+        <v>215.09195</v>
       </c>
       <c r="C41">
         <v>-3.2544137986904045</v>
@@ -53805,7 +54030,7 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>215.128885</v>
+        <v>215.12833499999999</v>
       </c>
       <c r="C42">
         <v>-3.1841377321518936</v>
@@ -53816,7 +54041,7 @@
         <v>67</v>
       </c>
       <c r="B43">
-        <v>221.08193500000002</v>
+        <v>221.08138500000001</v>
       </c>
       <c r="C43">
         <v>-3.3245592862218083</v>
@@ -53827,7 +54052,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>225.07685000000001</v>
+        <v>225.0763</v>
       </c>
       <c r="C44">
         <v>-2.4436098159541828</v>
@@ -53838,7 +54063,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>227.128885</v>
+        <v>227.12833499999999</v>
       </c>
       <c r="C45">
         <v>-2.5756301317683392</v>
@@ -53849,7 +54074,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>239.0925</v>
+        <v>239.09195</v>
       </c>
       <c r="C46">
         <v>-2.5094890052657286</v>
@@ -53860,7 +54085,7 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>239.128885</v>
+        <v>239.12833499999999</v>
       </c>
       <c r="C47">
         <v>-2.446379491130676</v>
@@ -53871,7 +54096,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>241.10814999999999</v>
+        <v>241.10759999999999</v>
       </c>
       <c r="C48">
         <v>-1.8663823682473097</v>
@@ -53882,7 +54107,7 @@
         <v>72</v>
       </c>
       <c r="B49">
-        <v>253.14453499999999</v>
+        <v>253.14398499999999</v>
       </c>
       <c r="C49">
         <v>-1.7183859014841285</v>
@@ -53893,7 +54118,7 @@
         <v>68</v>
       </c>
       <c r="B50">
-        <v>255.232955</v>
+        <v>255.232405</v>
       </c>
       <c r="C50">
         <v>-0.99908728482921105</v>
@@ -53904,7 +54129,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>259.08232999999996</v>
+        <v>259.08177999999998</v>
       </c>
       <c r="C51">
         <v>-0.50177100057730173</v>
@@ -53915,7 +54140,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>265.14790699999998</v>
+        <v>265.147357</v>
       </c>
       <c r="C52">
         <v>-0.78069633787064374</v>
@@ -53926,7 +54151,7 @@
         <v>73</v>
       </c>
       <c r="B53">
-        <v>269.13944999999995</v>
+        <v>269.13889999999998</v>
       </c>
       <c r="C53">
         <v>-0.92888649336708129</v>
@@ -53937,7 +54162,7 @@
         <v>69</v>
       </c>
       <c r="B54">
-        <v>283.26425499999999</v>
+        <v>283.26370500000002</v>
       </c>
       <c r="C54">
         <v>-1.6062739719422199</v>

--- a/products analysis/lockmassProd2000_neg100_300_noblanks2.xlsx
+++ b/products analysis/lockmassProd2000_neg100_300_noblanks2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skutarna\Documents\MSc 2\NTA\TargetDecoy\products analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F01EB3-B416-48D4-8B62-14C2D853150B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE31B033-4C7F-4C34-BA1C-066A2DBA0869}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51177,7 +51177,7 @@
   <dimension ref="A1:AR61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
